--- a/Excel/AAPL - DCF.xlsx
+++ b/Excel/AAPL - DCF.xlsx
@@ -5,23 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredherber/Desktop/Portfolio/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredherber/Desktop/Finance-Portfolio/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8654058B-618C-F543-BEE9-37810837ADB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8C90C8-CE76-D646-B2FA-2F526ADBB3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="29400" windowHeight="19040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="29400" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Comparable Analysis" sheetId="9" r:id="rId1"/>
-    <sheet name="Statement Model" sheetId="1" r:id="rId2"/>
-    <sheet name="DCF" sheetId="2" r:id="rId3"/>
-    <sheet name="Income Statement SEC" sheetId="3" r:id="rId4"/>
-    <sheet name="Balance Sheet SEC" sheetId="4" r:id="rId5"/>
-    <sheet name="Cash Flow Statement SEC" sheetId="5" r:id="rId6"/>
-    <sheet name="Income Statement YFinance" sheetId="7" r:id="rId7"/>
-    <sheet name="Balance Sheet YFinance" sheetId="6" r:id="rId8"/>
-    <sheet name="Cash Flow Statement YFinance" sheetId="8" r:id="rId9"/>
+    <sheet name="Statement Model" sheetId="1" r:id="rId1"/>
+    <sheet name="DCF" sheetId="2" r:id="rId2"/>
+    <sheet name="Income Statement SEC" sheetId="3" r:id="rId3"/>
+    <sheet name="Balance Sheet SEC" sheetId="4" r:id="rId4"/>
+    <sheet name="Cash Flow Statement SEC" sheetId="5" r:id="rId5"/>
+    <sheet name="Income Statement YFinance" sheetId="7" r:id="rId6"/>
+    <sheet name="Balance Sheet YFinance" sheetId="6" r:id="rId7"/>
+    <sheet name="Cash Flow Statement YFinance" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="360">
   <si>
     <t>Ticker</t>
   </si>
@@ -910,12 +909,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>avergae previous 4 years</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
     <t>Cash Flow Projections</t>
   </si>
   <si>
@@ -1123,18 +1116,17 @@
     <t>Market Risk Premium</t>
   </si>
   <si>
-    <t>Average Historicals</t>
-  </si>
-  <si>
     <t>EPS</t>
+  </si>
+  <si>
+    <t>I started with high growth, inline somewhat with previous years average . Then tapered it off slowly to aproach the Feds target of 1-3% inflation but kept it slightly above due to apples inovative nature.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  <numFmts count="9">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1245,7 +1237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1267,12 +1259,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,7 +1447,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1532,7 +1518,6 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1623,7 +1608,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1641,10 +1625,7 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1673,6 +1654,9 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -1684,6 +1668,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2016,23 +2003,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A86DA09-37D4-5944-9F21-8DE660ACF302}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="90" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D4" sqref="D1:D1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2044,15 +2019,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="70" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2061,7 +2036,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2075,7 +2050,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="71" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4">
@@ -2089,10 +2064,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="42">
         <v>224.72</v>
       </c>
       <c r="G5" s="20"/>
@@ -2103,10 +2078,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="43">
         <v>15405856000</v>
       </c>
       <c r="D6" s="20"/>
@@ -2118,97 +2093,97 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="72" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5">
         <f>'Income Statement YFinance'!E39</f>
         <v>0.14699999999999999</v>
       </c>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
     </row>
     <row r="8" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="91"/>
-    </row>
-    <row r="9" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="90"/>
+    </row>
+    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="85">
         <f>'Income Statement SEC'!C18</f>
         <v>2020</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="85">
         <f>'Income Statement SEC'!D18</f>
         <v>2021</v>
       </c>
-      <c r="E9" s="86">
+      <c r="E9" s="85">
         <f>'Income Statement SEC'!E18</f>
         <v>2022</v>
       </c>
-      <c r="F9" s="86">
+      <c r="F9" s="85">
         <f>'Income Statement SEC'!F18</f>
         <v>2023</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="84">
         <f>F9+1</f>
         <v>2024</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H9" s="85">
         <f t="shared" ref="H9:K9" si="0">G9+1</f>
         <v>2025</v>
       </c>
-      <c r="I9" s="86">
+      <c r="I9" s="85">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="J9" s="86">
+      <c r="J9" s="85">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="K9" s="86">
+      <c r="K9" s="85">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="39" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="90"/>
+    <row r="10" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="89"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="36"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="104" t="s">
+    <row r="11" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="65">
         <f>_xlfn.XLOOKUP($B11,'Income Statement SEC'!$B:$B,'Income Statement SEC'!C:C,"NA",0,1)*1000000</f>
         <v>274515000000</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="65">
         <f>_xlfn.XLOOKUP($B11,'Income Statement SEC'!$B:$B,'Income Statement SEC'!D:D,"NA",0,1)*1000000</f>
         <v>365817000000</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="65">
         <f>_xlfn.XLOOKUP($B11,'Income Statement SEC'!$B:$B,'Income Statement SEC'!E:E,"NA",0,1)*1000000</f>
         <v>394328000000</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="65">
         <f>_xlfn.XLOOKUP($B11,'Income Statement SEC'!$B:$B,'Income Statement SEC'!F:F,"NA",0,1)*1000000</f>
         <v>383285000000</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="45">
         <f>F11*(1+G12)</f>
         <v>413947800000</v>
       </c>
@@ -2228,10 +2203,10 @@
         <f>J11*(1+K12)</f>
         <v>515158430350.40997</v>
       </c>
-      <c r="L11" s="25"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="105" t="s">
+      <c r="L11" s="128"/>
+    </row>
+    <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="103" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="21"/>
@@ -2247,53 +2222,55 @@
         <f>(F11-E11)/E11</f>
         <v>-2.8004605303199367E-2</v>
       </c>
-      <c r="G12" s="125">
+      <c r="G12" s="120">
         <v>0.08</v>
       </c>
-      <c r="H12" s="125">
+      <c r="H12" s="120">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I12" s="125">
+      <c r="I12" s="120">
         <v>0.06</v>
       </c>
-      <c r="J12" s="125">
+      <c r="J12" s="120">
         <v>0.05</v>
       </c>
-      <c r="K12" s="125">
+      <c r="K12" s="120">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="L12" s="101"/>
+      <c r="L12" s="133" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="37"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="37"/>
-      <c r="L13" s="25"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="36"/>
+      <c r="L13" s="133"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="66">
+      <c r="C14" s="65">
         <f>_xlfn.XLOOKUP($B14,'Income Statement SEC'!$B:$B,'Income Statement SEC'!C:C,"NA",0,1)*1000000</f>
         <v>169559000000</v>
       </c>
-      <c r="D14" s="66">
+      <c r="D14" s="65">
         <f>_xlfn.XLOOKUP($B14,'Income Statement SEC'!$B:$B,'Income Statement SEC'!D:D,"NA",0,1)*1000000</f>
         <v>212981000000</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="65">
         <f>_xlfn.XLOOKUP($B14,'Income Statement SEC'!$B:$B,'Income Statement SEC'!E:E,"NA",0,1)*1000000</f>
         <v>223546000000</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="65">
         <f>_xlfn.XLOOKUP($B14,'Income Statement SEC'!$B:$B,'Income Statement SEC'!F:F,"NA",0,1)*1000000</f>
         <v>214137000000</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="34">
         <f>G11*G15</f>
         <v>240655417310.70724</v>
       </c>
@@ -2313,10 +2290,10 @@
         <f>K11*K15</f>
         <v>299495895465.82159</v>
       </c>
-      <c r="L14" s="25"/>
+      <c r="L14" s="133"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="103" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="21">
@@ -2335,74 +2312,72 @@
         <f>F14/F11</f>
         <v>0.55868870422792438</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="49">
         <f>AVERAGE($C$15:$F$15)</f>
         <v>0.58136658127113428</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="41">
         <f>AVERAGE($C$15:$F$15)</f>
         <v>0.58136658127113428</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="41">
         <f>AVERAGE($C$15:$F$15)</f>
         <v>0.58136658127113428</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="41">
         <f>AVERAGE($C$15:$F$15)</f>
         <v>0.58136658127113428</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="41">
         <f>AVERAGE($C$15:$F$15)</f>
         <v>0.58136658127113428</v>
       </c>
-      <c r="L15" s="25" t="s">
-        <v>290</v>
-      </c>
+      <c r="L15" s="133"/>
     </row>
     <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="68">
         <f>_xlfn.XLOOKUP($B16,'Income Statement SEC'!$B:$B,'Income Statement SEC'!C:C,"NA",0,1)*1000000</f>
         <v>104956000000</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D16" s="68">
         <f>_xlfn.XLOOKUP($B16,'Income Statement SEC'!$B:$B,'Income Statement SEC'!D:D,"NA",0,1)*1000000</f>
         <v>152836000000</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="68">
         <f>_xlfn.XLOOKUP($B16,'Income Statement SEC'!$B:$B,'Income Statement SEC'!E:E,"NA",0,1)*1000000</f>
         <v>170782000000</v>
       </c>
-      <c r="F16" s="69">
+      <c r="F16" s="68">
         <f>_xlfn.XLOOKUP($B16,'Income Statement SEC'!$B:$B,'Income Statement SEC'!F:F,"NA",0,1)*1000000</f>
         <v>169148000000</v>
       </c>
-      <c r="G16" s="109">
+      <c r="G16" s="107">
         <f>G11-G14</f>
         <v>173292382689.29276</v>
       </c>
-      <c r="H16" s="110">
+      <c r="H16" s="108">
         <f>H11-H14</f>
         <v>185422849477.54324</v>
       </c>
-      <c r="I16" s="110">
+      <c r="I16" s="108">
         <f>I11-I14</f>
         <v>196548220446.19586</v>
       </c>
-      <c r="J16" s="110">
+      <c r="J16" s="108">
         <f>J11-J14</f>
         <v>206375631468.50562</v>
       </c>
-      <c r="K16" s="99">
+      <c r="K16" s="108">
         <f>K11-K14</f>
         <v>215662534884.58838</v>
       </c>
-      <c r="L16" s="25"/>
+      <c r="L16" s="133"/>
     </row>
     <row r="17" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="103" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="21">
@@ -2421,43 +2396,43 @@
         <f>F16/F11</f>
         <v>0.44131129577207562</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="25"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="133"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="37"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="37"/>
-      <c r="L18" s="25"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="36"/>
+      <c r="L18" s="133"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="65">
         <f>_xlfn.XLOOKUP($B19,'Income Statement SEC'!$B:$B,'Income Statement SEC'!C:C,"NA",0,1)*1000000</f>
         <v>18752000000</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="65">
         <f>_xlfn.XLOOKUP($B19,'Income Statement SEC'!$B:$B,'Income Statement SEC'!D:D,"NA",0,1)*1000000</f>
         <v>21914000000</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="65">
         <f>_xlfn.XLOOKUP($B19,'Income Statement SEC'!$B:$B,'Income Statement SEC'!E:E,"NA",0,1)*1000000</f>
         <v>26251000000</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="65">
         <f>_xlfn.XLOOKUP($B19,'Income Statement SEC'!$B:$B,'Income Statement SEC'!F:F,"NA",0,1)*1000000</f>
         <v>29915000000</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="45">
         <f>G11*G20</f>
         <v>28234788345.880661</v>
       </c>
@@ -2477,7 +2452,7 @@
         <f>K11*K20</f>
         <v>35138220919.497414</v>
       </c>
-      <c r="L19" s="25"/>
+      <c r="L19" s="128"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="28" t="s">
@@ -2499,51 +2474,49 @@
         <f>F19/F11</f>
         <v>7.8048971392045086E-2</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="49">
         <f>AVERAGE($C$20:$F$20)</f>
         <v>6.8208572061213182E-2</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="41">
         <f t="shared" ref="H20:K20" si="1">AVERAGE($C$20:$F$20)</f>
         <v>6.8208572061213182E-2</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="41">
         <f t="shared" si="1"/>
         <v>6.8208572061213182E-2</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="41">
         <f t="shared" si="1"/>
         <v>6.8208572061213182E-2</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="41">
         <f t="shared" si="1"/>
         <v>6.8208572061213182E-2</v>
       </c>
-      <c r="L20" s="25" t="s">
-        <v>290</v>
-      </c>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="65">
         <f>_xlfn.XLOOKUP($B21,'Income Statement SEC'!$B:$B,'Income Statement SEC'!C:C,"NA",0,1)*1000000</f>
         <v>19916000000</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="65">
         <f>_xlfn.XLOOKUP($B21,'Income Statement SEC'!$B:$B,'Income Statement SEC'!D:D,"NA",0,1)*1000000</f>
         <v>21973000000</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="65">
         <f>_xlfn.XLOOKUP($B21,'Income Statement SEC'!$B:$B,'Income Statement SEC'!E:E,"NA",0,1)*1000000</f>
         <v>25094000000</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="65">
         <f>_xlfn.XLOOKUP($B21,'Income Statement SEC'!$B:$B,'Income Statement SEC'!F:F,"NA",0,1)*1000000</f>
         <v>24932000000</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="45">
         <f>G11*G22</f>
         <v>27041233302.13686</v>
       </c>
@@ -2585,51 +2558,49 @@
         <f>F21/F11</f>
         <v>6.5048201729783317E-2</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G22" s="49">
         <f>AVERAGE($C$22:$F$22)</f>
         <v>6.5325225311348101E-2</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="41">
         <f t="shared" ref="H22:K22" si="2">AVERAGE($C$22:$F$22)</f>
         <v>6.5325225311348101E-2</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="41">
         <f t="shared" si="2"/>
         <v>6.5325225311348101E-2</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="41">
         <f t="shared" si="2"/>
         <v>6.5325225311348101E-2</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="41">
         <f t="shared" si="2"/>
         <v>6.5325225311348101E-2</v>
       </c>
-      <c r="L22" s="25" t="s">
-        <v>290</v>
-      </c>
+      <c r="L22" s="25"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="65">
         <f>_xlfn.XLOOKUP($B23,'Income Statement SEC'!$B:$B,'Income Statement SEC'!C:C,"NA",0,1)*1000000</f>
         <v>38668000000</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="65">
         <f>_xlfn.XLOOKUP($B23,'Income Statement SEC'!$B:$B,'Income Statement SEC'!D:D,"NA",0,1)*1000000</f>
         <v>43887000000</v>
       </c>
-      <c r="E23" s="66">
+      <c r="E23" s="65">
         <f>_xlfn.XLOOKUP($B23,'Income Statement SEC'!$B:$B,'Income Statement SEC'!E:E,"NA",0,1)*1000000</f>
         <v>51345000000</v>
       </c>
-      <c r="F23" s="66">
+      <c r="F23" s="65">
         <f>_xlfn.XLOOKUP($B23,'Income Statement SEC'!$B:$B,'Income Statement SEC'!F:F,"NA",0,1)*1000000</f>
         <v>54847000000</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="36">
         <f>G19+G21</f>
         <v>55276021648.017517</v>
       </c>
@@ -2652,21 +2623,21 @@
       <c r="L23" s="25"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="37"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="37"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="36"/>
       <c r="L24" s="25"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="37"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="46"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -2674,26 +2645,26 @@
       <c r="L25" s="25"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="106" t="s">
+      <c r="B26" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="118">
+      <c r="C26" s="113">
         <f t="shared" ref="C26:K26" si="3">C14+C23</f>
         <v>208227000000</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="65">
         <f t="shared" si="3"/>
         <v>256868000000</v>
       </c>
-      <c r="E26" s="66">
+      <c r="E26" s="65">
         <f t="shared" si="3"/>
         <v>274891000000</v>
       </c>
-      <c r="F26" s="66">
+      <c r="F26" s="65">
         <f t="shared" si="3"/>
         <v>268984000000</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="34">
         <f t="shared" si="3"/>
         <v>295931438958.72473</v>
       </c>
@@ -2719,46 +2690,46 @@
       <c r="B27" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="68">
         <f>C16-C23</f>
         <v>66288000000</v>
       </c>
-      <c r="D27" s="69">
+      <c r="D27" s="68">
         <f>D16-D23</f>
         <v>108949000000</v>
       </c>
-      <c r="E27" s="69">
+      <c r="E27" s="68">
         <f>E16-E23</f>
         <v>119437000000</v>
       </c>
-      <c r="F27" s="69">
+      <c r="F27" s="68">
         <f>F16-F23</f>
         <v>114301000000</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="38">
         <f t="shared" ref="G27:K27" si="4">G16-G23</f>
         <v>118016361041.27524</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="31">
         <f t="shared" si="4"/>
         <v>126277506314.16449</v>
       </c>
-      <c r="I27" s="32">
+      <c r="I27" s="31">
         <f t="shared" si="4"/>
         <v>133854156693.01439</v>
       </c>
-      <c r="J27" s="32">
+      <c r="J27" s="31">
         <f t="shared" si="4"/>
         <v>140546864527.66507</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="32">
         <f t="shared" si="4"/>
         <v>146871473431.41</v>
       </c>
       <c r="L27" s="25"/>
     </row>
     <row r="28" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="103" t="s">
         <v>286</v>
       </c>
       <c r="C28" s="21">
@@ -2777,7 +2748,7 @@
         <f>F27/F11</f>
         <v>0.29821412265024722</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="35">
         <f t="shared" ref="G28:K28" si="5">G27/G11</f>
         <v>0.28509962135630446</v>
       </c>
@@ -2800,45 +2771,45 @@
       <c r="L28" s="25"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="68">
+      <c r="C29" s="67">
         <v>2873000000</v>
       </c>
-      <c r="D29" s="68">
+      <c r="D29" s="67">
         <v>2645000000</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="67">
         <v>2931000000</v>
       </c>
-      <c r="F29" s="68">
+      <c r="F29" s="67">
         <v>3933000000</v>
       </c>
-      <c r="G29" s="89">
+      <c r="G29" s="88">
         <f>G73*G30</f>
         <v>2959829368.1155133</v>
       </c>
-      <c r="H29" s="89">
+      <c r="H29" s="88">
         <f t="shared" ref="H29:K29" si="6">H73*H30</f>
         <v>2959829368.1155133</v>
       </c>
-      <c r="I29" s="89">
+      <c r="I29" s="88">
         <f t="shared" si="6"/>
         <v>2959829368.1155133</v>
       </c>
-      <c r="J29" s="89">
+      <c r="J29" s="88">
         <f t="shared" si="6"/>
         <v>2959829368.1155133</v>
       </c>
-      <c r="K29" s="89">
+      <c r="K29" s="88">
         <f t="shared" si="6"/>
         <v>2959829368.1155133</v>
       </c>
       <c r="L29" s="25"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="103" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="21">
@@ -2857,51 +2828,49 @@
         <f t="shared" si="7"/>
         <v>4.1277904304110997E-2</v>
       </c>
-      <c r="G30" s="50">
+      <c r="G30" s="49">
         <f>AVERAGE($C$30:$F$30)</f>
         <v>3.1064213936834346E-2</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="41">
         <f t="shared" ref="H30:K30" si="8">AVERAGE($C$30:$F$30)</f>
         <v>3.1064213936834346E-2</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="41">
         <f t="shared" si="8"/>
         <v>3.1064213936834346E-2</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="41">
         <f t="shared" si="8"/>
         <v>3.1064213936834346E-2</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="41">
         <f t="shared" si="8"/>
         <v>3.1064213936834346E-2</v>
       </c>
-      <c r="L30" s="25" t="s">
-        <v>290</v>
-      </c>
+      <c r="L30" s="25"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="106" t="s">
+      <c r="B31" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="66">
+      <c r="C31" s="65">
         <f>C84</f>
         <v>11056000000</v>
       </c>
-      <c r="D31" s="66">
+      <c r="D31" s="65">
         <f t="shared" ref="D31:F31" si="9">D84</f>
         <v>11284000000</v>
       </c>
-      <c r="E31" s="66">
+      <c r="E31" s="65">
         <f t="shared" si="9"/>
         <v>11104000000</v>
       </c>
-      <c r="F31" s="66">
+      <c r="F31" s="65">
         <f t="shared" si="9"/>
         <v>11519000000</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="45">
         <f>AVERAGE($C$31:$F$31)</f>
         <v>11240750000</v>
       </c>
@@ -2921,54 +2890,52 @@
         <f t="shared" si="10"/>
         <v>11240750000</v>
       </c>
-      <c r="L31" s="25" t="s">
-        <v>289</v>
-      </c>
+      <c r="L31" s="25"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="C32" s="117">
+      <c r="C32" s="112">
         <f>C27+C29+C31</f>
         <v>80217000000</v>
       </c>
-      <c r="D32" s="117">
+      <c r="D32" s="112">
         <f t="shared" ref="D32:F32" si="11">D27+D29+D31</f>
         <v>122878000000</v>
       </c>
-      <c r="E32" s="117">
+      <c r="E32" s="112">
         <f t="shared" si="11"/>
         <v>133472000000</v>
       </c>
-      <c r="F32" s="117">
+      <c r="F32" s="112">
         <f t="shared" si="11"/>
         <v>129753000000</v>
       </c>
-      <c r="G32" s="109">
+      <c r="G32" s="107">
         <f t="shared" ref="G32" si="12">G27+G29+G31</f>
         <v>132216940409.39075</v>
       </c>
-      <c r="H32" s="110">
+      <c r="H32" s="108">
         <f t="shared" ref="H32" si="13">H27+H29+H31</f>
         <v>140478085682.28</v>
       </c>
-      <c r="I32" s="110">
+      <c r="I32" s="108">
         <f t="shared" ref="I32" si="14">I27+I29+I31</f>
         <v>148054736061.12988</v>
       </c>
-      <c r="J32" s="110">
+      <c r="J32" s="108">
         <f t="shared" ref="J32" si="15">J27+J29+J31</f>
         <v>154747443895.78058</v>
       </c>
-      <c r="K32" s="99">
+      <c r="K32" s="98">
         <f t="shared" ref="K32" si="16">K27+K29+K31</f>
         <v>161072052799.52551</v>
       </c>
       <c r="L32" s="25"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="105" t="s">
+      <c r="B33" s="103" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="21">
@@ -3011,58 +2978,58 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B34" s="27"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="102"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="100"/>
       <c r="L34" s="25"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B35" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="66">
+      <c r="C35" s="65">
         <f>_xlfn.XLOOKUP($B35,'Income Statement SEC'!$B:$B,'Income Statement SEC'!C:C,"NA",0,1)*1000000</f>
         <v>803000000</v>
       </c>
-      <c r="D35" s="66">
+      <c r="D35" s="65">
         <f>_xlfn.XLOOKUP($B35,'Income Statement SEC'!$B:$B,'Income Statement SEC'!D:D,"NA",0,1)*1000000</f>
         <v>258000000</v>
       </c>
-      <c r="E35" s="66">
+      <c r="E35" s="65">
         <f>_xlfn.XLOOKUP($B35,'Income Statement SEC'!$B:$B,'Income Statement SEC'!E:E,"NA",0,1)*1000000</f>
         <v>-334000000</v>
       </c>
-      <c r="F35" s="66">
+      <c r="F35" s="65">
         <f>_xlfn.XLOOKUP($B35,'Income Statement SEC'!$B:$B,'Income Statement SEC'!F:F,"NA",0,1)*1000000</f>
         <v>-565000000</v>
       </c>
-      <c r="G35" s="37"/>
+      <c r="G35" s="36"/>
       <c r="L35" s="25"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B36" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="66">
+      <c r="C36" s="65">
         <f>_xlfn.XLOOKUP($B36,'Income Statement SEC'!$B:$B,'Income Statement SEC'!C:C,"NA",0,1)*1000000</f>
         <v>67091000000</v>
       </c>
-      <c r="D36" s="66">
+      <c r="D36" s="65">
         <f>_xlfn.XLOOKUP($B36,'Income Statement SEC'!$B:$B,'Income Statement SEC'!D:D,"NA",0,1)*1000000</f>
         <v>109207000000</v>
       </c>
-      <c r="E36" s="66">
+      <c r="E36" s="65">
         <f>_xlfn.XLOOKUP($B36,'Income Statement SEC'!$B:$B,'Income Statement SEC'!E:E,"NA",0,1)*1000000</f>
         <v>119103000000</v>
       </c>
-      <c r="F36" s="66">
+      <c r="F36" s="65">
         <f>_xlfn.XLOOKUP($B36,'Income Statement SEC'!$B:$B,'Income Statement SEC'!F:F,"NA",0,1)*1000000</f>
         <v>113736000000</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="45">
         <f>G32-G35</f>
         <v>132216940409.39075</v>
       </c>
@@ -3085,7 +3052,7 @@
       <c r="L36" s="25"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="105" t="s">
+      <c r="B37" s="103" t="s">
         <v>285</v>
       </c>
       <c r="C37" s="21">
@@ -3104,7 +3071,7 @@
         <f>F36/F11</f>
         <v>0.29674002374212399</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="37">
         <f>G36/G11</f>
         <v>0.31940486314793975</v>
       </c>
@@ -3130,23 +3097,23 @@
       <c r="B38" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="66">
+      <c r="C38" s="65">
         <f>_xlfn.XLOOKUP($B38,'Income Statement SEC'!$B:$B,'Income Statement SEC'!C:C,"NA",0,1)*1000000</f>
         <v>9680000000</v>
       </c>
-      <c r="D38" s="66">
+      <c r="D38" s="65">
         <f>_xlfn.XLOOKUP($B38,'Income Statement SEC'!$B:$B,'Income Statement SEC'!D:D,"NA",0,1)*1000000</f>
         <v>14527000000</v>
       </c>
-      <c r="E38" s="66">
+      <c r="E38" s="65">
         <f>_xlfn.XLOOKUP($B38,'Income Statement SEC'!$B:$B,'Income Statement SEC'!E:E,"NA",0,1)*1000000</f>
         <v>19300000000</v>
       </c>
-      <c r="F38" s="66">
+      <c r="F38" s="65">
         <f>_xlfn.XLOOKUP($B38,'Income Statement SEC'!$B:$B,'Income Statement SEC'!F:F,"NA",0,1)*1000000</f>
         <v>16741000000</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="45">
         <f>G36*$C$7</f>
         <v>19435890240.180439</v>
       </c>
@@ -3172,51 +3139,51 @@
       <c r="B39" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="69">
+      <c r="C39" s="68">
         <f>_xlfn.XLOOKUP($B39,'Income Statement SEC'!$B:$B,'Income Statement SEC'!C:C,"NA",0,1)*1000000</f>
         <v>57411000000</v>
       </c>
-      <c r="D39" s="69">
+      <c r="D39" s="68">
         <f>_xlfn.XLOOKUP($B39,'Income Statement SEC'!$B:$B,'Income Statement SEC'!D:D,"NA",0,1)*1000000</f>
         <v>94680000000</v>
       </c>
-      <c r="E39" s="69">
+      <c r="E39" s="68">
         <f>_xlfn.XLOOKUP($B39,'Income Statement SEC'!$B:$B,'Income Statement SEC'!E:E,"NA",0,1)*1000000</f>
         <v>99803000000</v>
       </c>
-      <c r="F39" s="69">
+      <c r="F39" s="68">
         <f>_xlfn.XLOOKUP($B39,'Income Statement SEC'!$B:$B,'Income Statement SEC'!F:F,"NA",0,1)*1000000</f>
         <v>96995000000</v>
       </c>
-      <c r="G39" s="109">
+      <c r="G39" s="107">
         <f>G36-G38</f>
         <v>112781050169.21031</v>
       </c>
-      <c r="H39" s="110">
+      <c r="H39" s="108">
         <f t="shared" ref="H39:K39" si="21">H36-H38</f>
         <v>119827807086.98483</v>
       </c>
-      <c r="I39" s="110">
+      <c r="I39" s="108">
         <f t="shared" si="21"/>
         <v>126290689860.1438</v>
       </c>
-      <c r="J39" s="110">
+      <c r="J39" s="108">
         <f t="shared" si="21"/>
         <v>131999569643.10083</v>
       </c>
-      <c r="K39" s="99">
+      <c r="K39" s="98">
         <f t="shared" si="21"/>
         <v>137394461037.99527</v>
       </c>
       <c r="L39" s="25"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="37"/>
-      <c r="L40" s="41"/>
+      <c r="B40" s="36"/>
+      <c r="L40" s="40"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="37" t="s">
-        <v>361</v>
+      <c r="B41" s="36" t="s">
+        <v>358</v>
       </c>
       <c r="C41" s="6">
         <f>'Income Statement SEC'!C42</f>
@@ -3256,7 +3223,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="37"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
@@ -3268,64 +3235,62 @@
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="51"/>
+      <c r="B43" s="50"/>
     </row>
     <row r="44" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="84" t="s">
-        <v>318</v>
-      </c>
-      <c r="C44" s="85">
+      <c r="B44" s="83" t="s">
+        <v>316</v>
+      </c>
+      <c r="C44" s="84">
         <f>C9</f>
         <v>2020</v>
       </c>
-      <c r="D44" s="86">
+      <c r="D44" s="85">
         <f t="shared" ref="D44:K44" si="23">D9</f>
         <v>2021</v>
       </c>
-      <c r="E44" s="86">
+      <c r="E44" s="85">
         <f t="shared" si="23"/>
         <v>2022</v>
       </c>
-      <c r="F44" s="87">
+      <c r="F44" s="86">
         <f t="shared" si="23"/>
         <v>2023</v>
       </c>
-      <c r="G44" s="85">
+      <c r="G44" s="84">
         <f t="shared" si="23"/>
         <v>2024</v>
       </c>
-      <c r="H44" s="86">
+      <c r="H44" s="85">
         <f t="shared" si="23"/>
         <v>2025</v>
       </c>
-      <c r="I44" s="86">
+      <c r="I44" s="85">
         <f t="shared" si="23"/>
         <v>2026</v>
       </c>
-      <c r="J44" s="86">
+      <c r="J44" s="85">
         <f t="shared" si="23"/>
         <v>2027</v>
       </c>
-      <c r="K44" s="107">
+      <c r="K44" s="105">
         <f t="shared" si="23"/>
         <v>2028</v>
       </c>
-      <c r="L44" s="108" t="s">
-        <v>288</v>
-      </c>
+      <c r="L44" s="106"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="90"/>
-      <c r="F45" s="92"/>
+      <c r="B45" s="89"/>
+      <c r="F45" s="91"/>
       <c r="K45" s="1"/>
       <c r="L45" s="25"/>
     </row>
     <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="74" t="s">
-        <v>319</v>
+      <c r="B46" s="73" t="s">
+        <v>317</v>
       </c>
       <c r="F46" s="1"/>
       <c r="K46" s="1"/>
@@ -3333,42 +3298,42 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="89">
+      <c r="C47" s="88">
         <f>'Balance Sheet SEC'!C20*1000000</f>
         <v>38016000000</v>
       </c>
-      <c r="D47" s="89">
+      <c r="D47" s="88">
         <f>'Balance Sheet SEC'!D20*1000000</f>
         <v>34940000000</v>
       </c>
-      <c r="E47" s="89">
+      <c r="E47" s="88">
         <f>'Balance Sheet SEC'!E20*1000000</f>
         <v>23646000000</v>
       </c>
-      <c r="F47" s="123">
+      <c r="F47" s="118">
         <f>'Balance Sheet SEC'!F20*1000000</f>
         <v>29965000000</v>
       </c>
-      <c r="G47" s="89">
+      <c r="G47" s="88">
         <f>G112</f>
         <v>35859579216.683762</v>
       </c>
-      <c r="H47" s="89">
+      <c r="H47" s="88">
         <f t="shared" ref="H47:K47" si="24">H112</f>
         <v>42123623841.32402</v>
       </c>
-      <c r="I47" s="89">
+      <c r="I47" s="88">
         <f t="shared" si="24"/>
         <v>55891856737.32579</v>
       </c>
-      <c r="J47" s="89">
+      <c r="J47" s="88">
         <f t="shared" si="24"/>
         <v>79271427305.996887</v>
       </c>
-      <c r="K47" s="89">
+      <c r="K47" s="88">
         <f t="shared" si="24"/>
         <v>108020390966.25258</v>
       </c>
@@ -3376,42 +3341,42 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="C48" s="89">
+      <c r="B48" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="C48" s="88">
         <f>'Balance Sheet SEC'!C21*1000000</f>
         <v>52927000000</v>
       </c>
-      <c r="D48" s="89">
+      <c r="D48" s="88">
         <f>'Balance Sheet SEC'!D21*1000000</f>
         <v>27699000000</v>
       </c>
-      <c r="E48" s="89">
+      <c r="E48" s="88">
         <f>'Balance Sheet SEC'!E21*1000000</f>
         <v>24658000000</v>
       </c>
-      <c r="F48" s="123">
+      <c r="F48" s="118">
         <f>'Balance Sheet SEC'!F21*1000000</f>
         <v>31590000000</v>
       </c>
-      <c r="G48" s="89">
+      <c r="G48" s="88">
         <f>AVERAGE(C48:F48)</f>
         <v>34218500000</v>
       </c>
-      <c r="H48" s="89">
+      <c r="H48" s="88">
         <f t="shared" ref="H48:K48" si="25">AVERAGE(D48:G48)</f>
         <v>29541375000</v>
       </c>
-      <c r="I48" s="89">
+      <c r="I48" s="88">
         <f t="shared" si="25"/>
         <v>30001968750</v>
       </c>
-      <c r="J48" s="89">
+      <c r="J48" s="88">
         <f t="shared" si="25"/>
         <v>31337960937.5</v>
       </c>
-      <c r="K48" s="89">
+      <c r="K48" s="88">
         <f t="shared" si="25"/>
         <v>31274951171.875</v>
       </c>
@@ -3419,42 +3384,42 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="61" t="s">
-        <v>321</v>
-      </c>
-      <c r="C49" s="89">
+      <c r="B49" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="C49" s="88">
         <f>37445000*1000</f>
         <v>37445000000</v>
       </c>
-      <c r="D49" s="89">
+      <c r="D49" s="88">
         <f>51506000*1000</f>
         <v>51506000000</v>
       </c>
-      <c r="E49" s="89">
+      <c r="E49" s="88">
         <f>60932000*1000</f>
         <v>60932000000</v>
       </c>
-      <c r="F49" s="123">
+      <c r="F49" s="118">
         <f>60985000*1000</f>
         <v>60985000000</v>
       </c>
-      <c r="G49" s="89">
+      <c r="G49" s="88">
         <f>G11*G50</f>
         <v>61143593493.459244</v>
       </c>
-      <c r="H49" s="89">
+      <c r="H49" s="88">
         <f t="shared" ref="H49:K49" si="26">H11*H50</f>
         <v>65423645038.001396</v>
       </c>
-      <c r="I49" s="89">
+      <c r="I49" s="88">
         <f t="shared" si="26"/>
         <v>69349063740.281479</v>
       </c>
-      <c r="J49" s="89">
+      <c r="J49" s="88">
         <f t="shared" si="26"/>
         <v>72816516927.295547</v>
       </c>
-      <c r="K49" s="89">
+      <c r="K49" s="88">
         <f t="shared" si="26"/>
         <v>76093260189.023849</v>
       </c>
@@ -3462,8 +3427,8 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="70" t="s">
-        <v>322</v>
+      <c r="B50" s="69" t="s">
+        <v>320</v>
       </c>
       <c r="C50" s="21">
         <f>C49/C11</f>
@@ -3477,27 +3442,27 @@
         <f t="shared" si="27"/>
         <v>0.15452110933030372</v>
       </c>
-      <c r="F50" s="31">
+      <c r="F50" s="30">
         <f t="shared" si="27"/>
         <v>0.15911136621574024</v>
       </c>
-      <c r="G50" s="42">
+      <c r="G50" s="41">
         <f>AVERAGE($C$50:$F$50)</f>
         <v>0.14770846346679278</v>
       </c>
-      <c r="H50" s="42">
+      <c r="H50" s="41">
         <f t="shared" ref="H50:K50" si="28">AVERAGE($C$50:$F$50)</f>
         <v>0.14770846346679278</v>
       </c>
-      <c r="I50" s="42">
+      <c r="I50" s="41">
         <f t="shared" si="28"/>
         <v>0.14770846346679278</v>
       </c>
-      <c r="J50" s="42">
+      <c r="J50" s="41">
         <f t="shared" si="28"/>
         <v>0.14770846346679278</v>
       </c>
-      <c r="K50" s="42">
+      <c r="K50" s="41">
         <f t="shared" si="28"/>
         <v>0.14770846346679278</v>
       </c>
@@ -3505,22 +3470,22 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="76">
+      <c r="C51" s="75">
         <f>'Balance Sheet SEC'!C24*1000000</f>
         <v>4061000000</v>
       </c>
-      <c r="D51" s="76">
+      <c r="D51" s="75">
         <f>'Balance Sheet SEC'!D24*1000000</f>
         <v>6580000000</v>
       </c>
-      <c r="E51" s="76">
+      <c r="E51" s="75">
         <f>'Balance Sheet SEC'!E24*1000000</f>
         <v>4946000000</v>
       </c>
-      <c r="F51" s="77">
+      <c r="F51" s="76">
         <f>'Balance Sheet SEC'!F24*1000000</f>
         <v>6331000000</v>
       </c>
@@ -3548,8 +3513,8 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="62" t="s">
-        <v>323</v>
+      <c r="B52" s="61" t="s">
+        <v>321</v>
       </c>
       <c r="C52" s="21">
         <f>C51/C11</f>
@@ -3563,27 +3528,27 @@
         <f t="shared" si="30"/>
         <v>1.2542857722505123E-2</v>
       </c>
-      <c r="F52" s="31">
+      <c r="F52" s="30">
         <f t="shared" si="30"/>
         <v>1.6517734844828262E-2</v>
       </c>
-      <c r="G52" s="42">
+      <c r="G52" s="41">
         <f>AVERAGE($C$52:$F$52)</f>
         <v>1.5460272762893988E-2</v>
       </c>
-      <c r="H52" s="42">
+      <c r="H52" s="41">
         <f t="shared" ref="H52:K52" si="31">AVERAGE($C$52:$F$52)</f>
         <v>1.5460272762893988E-2</v>
       </c>
-      <c r="I52" s="42">
+      <c r="I52" s="41">
         <f t="shared" si="31"/>
         <v>1.5460272762893988E-2</v>
       </c>
-      <c r="J52" s="42">
+      <c r="J52" s="41">
         <f t="shared" si="31"/>
         <v>1.5460272762893988E-2</v>
       </c>
-      <c r="K52" s="42">
+      <c r="K52" s="41">
         <f t="shared" si="31"/>
         <v>1.5460272762893988E-2</v>
       </c>
@@ -3591,42 +3556,42 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="89">
+      <c r="C53" s="88">
         <f>'Balance Sheet SEC'!C25*1000000</f>
         <v>11264000000</v>
       </c>
-      <c r="D53" s="89">
+      <c r="D53" s="88">
         <f>'Balance Sheet SEC'!D25*1000000</f>
         <v>14111000000</v>
       </c>
-      <c r="E53" s="89">
+      <c r="E53" s="88">
         <f>'Balance Sheet SEC'!E25*1000000</f>
         <v>21223000000</v>
       </c>
-      <c r="F53" s="123">
+      <c r="F53" s="118">
         <f>'Balance Sheet SEC'!F25*1000000</f>
         <v>14695000000</v>
       </c>
-      <c r="G53" s="89">
+      <c r="G53" s="88">
         <f>F53</f>
         <v>14695000000</v>
       </c>
-      <c r="H53" s="89">
+      <c r="H53" s="88">
         <f t="shared" ref="H53:K53" si="32">G53</f>
         <v>14695000000</v>
       </c>
-      <c r="I53" s="89">
+      <c r="I53" s="88">
         <f t="shared" si="32"/>
         <v>14695000000</v>
       </c>
-      <c r="J53" s="89">
+      <c r="J53" s="88">
         <f t="shared" si="32"/>
         <v>14695000000</v>
       </c>
-      <c r="K53" s="89">
+      <c r="K53" s="88">
         <f t="shared" si="32"/>
         <v>14695000000</v>
       </c>
@@ -3634,42 +3599,42 @@
     </row>
     <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="C54" s="81">
+      <c r="B54" s="62" t="s">
+        <v>322</v>
+      </c>
+      <c r="C54" s="80">
         <f>C47+C48+C49+C51+C53</f>
         <v>143713000000</v>
       </c>
-      <c r="D54" s="81">
+      <c r="D54" s="80">
         <f t="shared" ref="D54:F54" si="33">D47+D48+D49+D51+D53</f>
         <v>134836000000</v>
       </c>
-      <c r="E54" s="81">
+      <c r="E54" s="80">
         <f t="shared" si="33"/>
         <v>135405000000</v>
       </c>
-      <c r="F54" s="82">
+      <c r="F54" s="81">
         <f t="shared" si="33"/>
         <v>143566000000</v>
       </c>
-      <c r="G54" s="81">
+      <c r="G54" s="80">
         <f>SUM(G47:G49,G51,G53)</f>
         <v>152316418607.74289</v>
       </c>
-      <c r="H54" s="81">
+      <c r="H54" s="80">
         <f t="shared" ref="H54:K54" si="34">SUM(H47:H49,H51,H53)</f>
         <v>158631371989.75729</v>
       </c>
-      <c r="I54" s="81">
+      <c r="I54" s="80">
         <f t="shared" si="34"/>
         <v>177196481024.66507</v>
       </c>
-      <c r="J54" s="81">
+      <c r="J54" s="80">
         <f t="shared" si="34"/>
         <v>205742426557.70309</v>
       </c>
-      <c r="K54" s="82">
+      <c r="K54" s="81">
         <f t="shared" si="34"/>
         <v>238048092176.47308</v>
       </c>
@@ -3677,52 +3642,52 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="79"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="78"/>
       <c r="K55" s="1"/>
       <c r="L55" s="25"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C56" s="89">
+      <c r="B56" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="C56" s="88">
         <f>'Balance Sheet SEC'!C30*1000000</f>
         <v>36766000000</v>
       </c>
-      <c r="D56" s="89">
+      <c r="D56" s="88">
         <f>'Balance Sheet SEC'!D30*1000000</f>
         <v>39440000000</v>
       </c>
-      <c r="E56" s="89">
+      <c r="E56" s="88">
         <f>'Balance Sheet SEC'!E30*1000000</f>
         <v>42117000000</v>
       </c>
-      <c r="F56" s="123">
+      <c r="F56" s="118">
         <f>'Balance Sheet SEC'!F30*1000000</f>
         <v>43715000000</v>
       </c>
-      <c r="G56" s="89">
+      <c r="G56" s="88">
         <f>F56-G84-G115</f>
         <v>41991030655.695488</v>
       </c>
-      <c r="H56" s="89">
+      <c r="H56" s="88">
         <f t="shared" ref="H56:K56" si="35">G56-H84-H115</f>
         <v>40146383457.289658</v>
       </c>
-      <c r="I56" s="89">
+      <c r="I56" s="88">
         <f t="shared" si="35"/>
         <v>38191057426.979477</v>
       </c>
-      <c r="J56" s="89">
+      <c r="J56" s="88">
         <f t="shared" si="35"/>
         <v>36137965095.153793</v>
       </c>
-      <c r="K56" s="89">
+      <c r="K56" s="88">
         <f t="shared" si="35"/>
         <v>33992483608.39595</v>
       </c>
@@ -3730,42 +3695,42 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="C57" s="89">
+      <c r="B57" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="C57" s="88">
         <f>'Balance Sheet SEC'!C29*1000000</f>
         <v>100887000000</v>
       </c>
-      <c r="D57" s="89">
+      <c r="D57" s="88">
         <f>'Balance Sheet SEC'!D29*1000000</f>
         <v>127877000000</v>
       </c>
-      <c r="E57" s="89">
+      <c r="E57" s="88">
         <f>'Balance Sheet SEC'!E29*1000000</f>
         <v>120805000000</v>
       </c>
-      <c r="F57" s="123">
+      <c r="F57" s="118">
         <f>'Balance Sheet SEC'!F29*1000000</f>
         <v>100544000000</v>
       </c>
-      <c r="G57" s="89">
+      <c r="G57" s="88">
         <f>F57</f>
         <v>100544000000</v>
       </c>
-      <c r="H57" s="89">
+      <c r="H57" s="88">
         <f t="shared" ref="H57:K57" si="36">G57</f>
         <v>100544000000</v>
       </c>
-      <c r="I57" s="89">
+      <c r="I57" s="88">
         <f t="shared" si="36"/>
         <v>100544000000</v>
       </c>
-      <c r="J57" s="89">
+      <c r="J57" s="88">
         <f t="shared" si="36"/>
         <v>100544000000</v>
       </c>
-      <c r="K57" s="89">
+      <c r="K57" s="88">
         <f t="shared" si="36"/>
         <v>100544000000</v>
       </c>
@@ -3773,42 +3738,42 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="61" t="s">
+      <c r="B58" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="89">
+      <c r="C58" s="88">
         <f>'Balance Sheet SEC'!C31*1000000</f>
         <v>42522000000</v>
       </c>
-      <c r="D58" s="89">
+      <c r="D58" s="88">
         <f>'Balance Sheet SEC'!D31*1000000</f>
         <v>48849000000</v>
       </c>
-      <c r="E58" s="89">
+      <c r="E58" s="88">
         <f>'Balance Sheet SEC'!E31*1000000</f>
         <v>54428000000</v>
       </c>
-      <c r="F58" s="123">
+      <c r="F58" s="118">
         <f>'Balance Sheet SEC'!F31*1000000</f>
         <v>64758000000</v>
       </c>
-      <c r="G58" s="89">
+      <c r="G58" s="88">
         <f>F58</f>
         <v>64758000000</v>
       </c>
-      <c r="H58" s="89">
+      <c r="H58" s="88">
         <f t="shared" ref="H58:K58" si="37">G58</f>
         <v>64758000000</v>
       </c>
-      <c r="I58" s="89">
+      <c r="I58" s="88">
         <f t="shared" si="37"/>
         <v>64758000000</v>
       </c>
-      <c r="J58" s="89">
+      <c r="J58" s="88">
         <f t="shared" si="37"/>
         <v>64758000000</v>
       </c>
-      <c r="K58" s="89">
+      <c r="K58" s="88">
         <f t="shared" si="37"/>
         <v>64758000000</v>
       </c>
@@ -3816,42 +3781,42 @@
     </row>
     <row r="59" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="63" t="s">
+      <c r="B59" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="C59" s="89">
+      <c r="C59" s="88">
         <f>SUM(C56:C58)</f>
         <v>180175000000</v>
       </c>
-      <c r="D59" s="89">
+      <c r="D59" s="88">
         <f t="shared" ref="D59:F59" si="38">SUM(D56:D58)</f>
         <v>216166000000</v>
       </c>
-      <c r="E59" s="89">
+      <c r="E59" s="88">
         <f t="shared" si="38"/>
         <v>217350000000</v>
       </c>
-      <c r="F59" s="123">
+      <c r="F59" s="118">
         <f t="shared" si="38"/>
         <v>209017000000</v>
       </c>
-      <c r="G59" s="89">
+      <c r="G59" s="88">
         <f>SUM(G56:G58)</f>
         <v>207293030655.6955</v>
       </c>
-      <c r="H59" s="89">
+      <c r="H59" s="88">
         <f t="shared" ref="H59:K59" si="39">SUM(H56:H58)</f>
         <v>205448383457.28967</v>
       </c>
-      <c r="I59" s="89">
+      <c r="I59" s="88">
         <f t="shared" si="39"/>
         <v>203493057426.97949</v>
       </c>
-      <c r="J59" s="89">
+      <c r="J59" s="88">
         <f t="shared" si="39"/>
         <v>201439965095.15381</v>
       </c>
-      <c r="K59" s="89">
+      <c r="K59" s="88">
         <f t="shared" si="39"/>
         <v>199294483608.39594</v>
       </c>
@@ -3859,49 +3824,49 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="60"/>
+      <c r="B60" s="59"/>
       <c r="F60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="25"/>
     </row>
     <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="63" t="s">
+      <c r="B61" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="81">
+      <c r="C61" s="80">
         <f>C54+C59</f>
         <v>323888000000</v>
       </c>
-      <c r="D61" s="81">
+      <c r="D61" s="80">
         <f t="shared" ref="D61:F61" si="40">D54+D59</f>
         <v>351002000000</v>
       </c>
-      <c r="E61" s="81">
+      <c r="E61" s="80">
         <f t="shared" si="40"/>
         <v>352755000000</v>
       </c>
-      <c r="F61" s="82">
+      <c r="F61" s="81">
         <f t="shared" si="40"/>
         <v>352583000000</v>
       </c>
-      <c r="G61" s="110">
+      <c r="G61" s="108">
         <f>G54+G59</f>
         <v>359609449263.43835</v>
       </c>
-      <c r="H61" s="110">
+      <c r="H61" s="108">
         <f t="shared" ref="H61:K61" si="41">H54+H59</f>
         <v>364079755447.047</v>
       </c>
-      <c r="I61" s="110">
+      <c r="I61" s="108">
         <f t="shared" si="41"/>
         <v>380689538451.64453</v>
       </c>
-      <c r="J61" s="110">
+      <c r="J61" s="108">
         <f t="shared" si="41"/>
         <v>407182391652.85693</v>
       </c>
-      <c r="K61" s="99">
+      <c r="K61" s="98">
         <f t="shared" si="41"/>
         <v>437342575784.86902</v>
       </c>
@@ -3909,24 +3874,24 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="37"/>
+      <c r="B62" s="36"/>
       <c r="F62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="25"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="60"/>
-      <c r="D63" s="129"/>
-      <c r="E63" s="129"/>
-      <c r="F63" s="129"/>
+      <c r="B63" s="59"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="124"/>
       <c r="K63" s="1"/>
       <c r="L63" s="25"/>
     </row>
     <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="74" t="s">
-        <v>327</v>
+      <c r="B64" s="73" t="s">
+        <v>325</v>
       </c>
       <c r="F64" s="1"/>
       <c r="K64" s="1"/>
@@ -3934,22 +3899,22 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="C65" s="65">
+      <c r="B65" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="C65" s="64">
         <f>'Balance Sheet SEC'!C37*1000000</f>
         <v>42296000000</v>
       </c>
-      <c r="D65" s="65">
+      <c r="D65" s="64">
         <f>'Balance Sheet SEC'!D37*1000000</f>
         <v>54763000000</v>
       </c>
-      <c r="E65" s="65">
+      <c r="E65" s="64">
         <f>'Balance Sheet SEC'!E37*1000000</f>
         <v>64115000000</v>
       </c>
-      <c r="F65" s="75">
+      <c r="F65" s="74">
         <f>'Balance Sheet SEC'!F37*1000000</f>
         <v>62611000000</v>
       </c>
@@ -3977,8 +3942,8 @@
     </row>
     <row r="66" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="64" t="s">
-        <v>329</v>
+      <c r="B66" s="63" t="s">
+        <v>327</v>
       </c>
       <c r="C66" s="21">
         <f>C65/C14</f>
@@ -3992,27 +3957,27 @@
         <f t="shared" si="43"/>
         <v>0.28680897891261753</v>
       </c>
-      <c r="F66" s="31">
+      <c r="F66" s="30">
         <f t="shared" si="43"/>
         <v>0.29238758364971956</v>
       </c>
-      <c r="G66" s="42">
+      <c r="G66" s="41">
         <f>AVERAGE(C66:F66)</f>
         <v>0.27144247005016636</v>
       </c>
-      <c r="H66" s="42">
+      <c r="H66" s="41">
         <f t="shared" ref="H66:K66" si="44">AVERAGE(D66:G66)</f>
         <v>0.27694131378484887</v>
       </c>
-      <c r="I66" s="42">
+      <c r="I66" s="41">
         <f t="shared" si="44"/>
         <v>0.2818950865993381</v>
       </c>
-      <c r="J66" s="42">
+      <c r="J66" s="41">
         <f t="shared" si="44"/>
         <v>0.28066661352101824</v>
       </c>
-      <c r="K66" s="42">
+      <c r="K66" s="41">
         <f t="shared" si="44"/>
         <v>0.27773637098884291</v>
       </c>
@@ -4020,42 +3985,42 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="61" t="s">
-        <v>330</v>
-      </c>
-      <c r="C67" s="89">
+      <c r="B67" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="C67" s="88">
         <f>('Balance Sheet SEC'!C41+'Balance Sheet SEC'!C40)*1000000</f>
         <v>13769000000</v>
       </c>
-      <c r="D67" s="89">
+      <c r="D67" s="88">
         <f>('Balance Sheet SEC'!D41+'Balance Sheet SEC'!D40)*1000000</f>
         <v>15613000000</v>
       </c>
-      <c r="E67" s="89">
+      <c r="E67" s="88">
         <f>('Balance Sheet SEC'!E41+'Balance Sheet SEC'!E40)*1000000</f>
         <v>21110000000</v>
       </c>
-      <c r="F67" s="123">
+      <c r="F67" s="118">
         <f>('Balance Sheet SEC'!F41+'Balance Sheet SEC'!F40)*1000000</f>
         <v>15807000000</v>
       </c>
-      <c r="G67" s="89">
+      <c r="G67" s="88">
         <f>F67</f>
         <v>15807000000</v>
       </c>
-      <c r="H67" s="89">
+      <c r="H67" s="88">
         <f t="shared" ref="H67:K67" si="45">G67</f>
         <v>15807000000</v>
       </c>
-      <c r="I67" s="89">
+      <c r="I67" s="88">
         <f t="shared" si="45"/>
         <v>15807000000</v>
       </c>
-      <c r="J67" s="89">
+      <c r="J67" s="88">
         <f t="shared" si="45"/>
         <v>15807000000</v>
       </c>
-      <c r="K67" s="89">
+      <c r="K67" s="88">
         <f t="shared" si="45"/>
         <v>15807000000</v>
       </c>
@@ -4063,22 +4028,22 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="61" t="s">
-        <v>331</v>
-      </c>
-      <c r="C68" s="89">
+      <c r="B68" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="C68" s="88">
         <f>'Balance Sheet SEC'!C39*1000000</f>
         <v>6643000000</v>
       </c>
-      <c r="D68" s="89">
+      <c r="D68" s="88">
         <f>'Balance Sheet SEC'!D39*1000000</f>
         <v>7612000000</v>
       </c>
-      <c r="E68" s="89">
+      <c r="E68" s="88">
         <f>'Balance Sheet SEC'!E39*1000000</f>
         <v>7912000000</v>
       </c>
-      <c r="F68" s="123">
+      <c r="F68" s="118">
         <f>'Balance Sheet SEC'!F39*1000000</f>
         <v>8061000000</v>
       </c>
@@ -4106,8 +4071,8 @@
     </row>
     <row r="69" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="64" t="s">
-        <v>332</v>
+      <c r="B69" s="63" t="s">
+        <v>330</v>
       </c>
       <c r="C69" s="21">
         <f>C68/C11</f>
@@ -4121,27 +4086,27 @@
         <f t="shared" si="47"/>
         <v>2.0064514820149724E-2</v>
       </c>
-      <c r="F69" s="31">
+      <c r="F69" s="30">
         <f t="shared" si="47"/>
         <v>2.1031347430763011E-2</v>
       </c>
-      <c r="G69" s="42">
+      <c r="G69" s="41">
         <f>AVERAGE($C69:$F69)</f>
         <v>2.1525780628606855E-2</v>
       </c>
-      <c r="H69" s="42">
+      <c r="H69" s="41">
         <f t="shared" ref="H69:K69" si="48">AVERAGE($C69:$F69)</f>
         <v>2.1525780628606855E-2</v>
       </c>
-      <c r="I69" s="42">
+      <c r="I69" s="41">
         <f t="shared" si="48"/>
         <v>2.1525780628606855E-2</v>
       </c>
-      <c r="J69" s="42">
+      <c r="J69" s="41">
         <f t="shared" si="48"/>
         <v>2.1525780628606855E-2</v>
       </c>
-      <c r="K69" s="42">
+      <c r="K69" s="41">
         <f t="shared" si="48"/>
         <v>2.1525780628606855E-2</v>
       </c>
@@ -4149,42 +4114,42 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="61" t="s">
+      <c r="B70" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="C70" s="89">
+      <c r="C70" s="88">
         <f>'Balance Sheet SEC'!C38*1000000</f>
         <v>42684000000</v>
       </c>
-      <c r="D70" s="89">
+      <c r="D70" s="88">
         <f>'Balance Sheet SEC'!D38*1000000</f>
         <v>47493000000</v>
       </c>
-      <c r="E70" s="89">
+      <c r="E70" s="88">
         <f>'Balance Sheet SEC'!E38*1000000</f>
         <v>60845000000</v>
       </c>
-      <c r="F70" s="123">
+      <c r="F70" s="118">
         <f>'Balance Sheet SEC'!F38*1000000</f>
         <v>58829000000</v>
       </c>
-      <c r="G70" s="89">
+      <c r="G70" s="88">
         <f>AVERAGE(C70:F70)</f>
         <v>52462750000</v>
       </c>
-      <c r="H70" s="89">
+      <c r="H70" s="88">
         <f t="shared" ref="H70:K70" si="49">AVERAGE(D70:G70)</f>
         <v>54907437500</v>
       </c>
-      <c r="I70" s="89">
+      <c r="I70" s="88">
         <f t="shared" si="49"/>
         <v>56761046875</v>
       </c>
-      <c r="J70" s="89">
+      <c r="J70" s="88">
         <f t="shared" si="49"/>
         <v>55740058593.75</v>
       </c>
-      <c r="K70" s="89">
+      <c r="K70" s="88">
         <f t="shared" si="49"/>
         <v>54967823242.1875</v>
       </c>
@@ -4192,42 +4157,42 @@
     </row>
     <row r="71" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="C71" s="81">
+      <c r="B71" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="C71" s="80">
         <f>SUM(C65:C70)</f>
         <v>105392000000.27365</v>
       </c>
-      <c r="D71" s="81">
+      <c r="D71" s="80">
         <f t="shared" ref="D71:F71" si="50">SUM(D65:D70)</f>
         <v>125481000000.27794</v>
       </c>
-      <c r="E71" s="81">
+      <c r="E71" s="80">
         <f t="shared" si="50"/>
         <v>153982000000.30688</v>
       </c>
-      <c r="F71" s="82">
+      <c r="F71" s="81">
         <f t="shared" si="50"/>
         <v>145308000000.31342</v>
       </c>
-      <c r="G71" s="110">
+      <c r="G71" s="108">
         <f>SUM(G65,G67:G68,G70)</f>
         <v>142504400440.26636</v>
       </c>
-      <c r="H71" s="110">
+      <c r="H71" s="108">
         <f t="shared" ref="H71:K71" si="51">SUM(H65,H67:H68,H70)</f>
         <v>151561472862.14014</v>
       </c>
-      <c r="I71" s="110">
+      <c r="I71" s="108">
         <f t="shared" si="51"/>
         <v>159618043456.62173</v>
       </c>
-      <c r="J71" s="110">
+      <c r="J71" s="108">
         <f t="shared" si="51"/>
         <v>162597475918.6662</v>
       </c>
-      <c r="K71" s="110">
+      <c r="K71" s="108">
         <f t="shared" si="51"/>
         <v>165044913735.61902</v>
       </c>
@@ -4235,49 +4200,49 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="60"/>
+      <c r="B72" s="59"/>
       <c r="F72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="25"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="61" t="s">
+      <c r="B73" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="89">
+      <c r="C73" s="88">
         <f>'Balance Sheet SEC'!C45*1000000</f>
         <v>98667000000</v>
       </c>
-      <c r="D73" s="89">
+      <c r="D73" s="88">
         <f>'Balance Sheet SEC'!D45*1000000</f>
         <v>109106000000</v>
       </c>
-      <c r="E73" s="89">
+      <c r="E73" s="88">
         <f>'Balance Sheet SEC'!E45*1000000</f>
         <v>98959000000</v>
       </c>
-      <c r="F73" s="123">
+      <c r="F73" s="118">
         <f>'Balance Sheet SEC'!F45*1000000</f>
         <v>95281000000</v>
       </c>
-      <c r="G73" s="89">
+      <c r="G73" s="88">
         <f>F73</f>
         <v>95281000000</v>
       </c>
-      <c r="H73" s="89">
+      <c r="H73" s="88">
         <f t="shared" ref="H73:K73" si="52">G73</f>
         <v>95281000000</v>
       </c>
-      <c r="I73" s="89">
+      <c r="I73" s="88">
         <f t="shared" si="52"/>
         <v>95281000000</v>
       </c>
-      <c r="J73" s="89">
+      <c r="J73" s="88">
         <f t="shared" si="52"/>
         <v>95281000000</v>
       </c>
-      <c r="K73" s="89">
+      <c r="K73" s="88">
         <f t="shared" si="52"/>
         <v>95281000000</v>
       </c>
@@ -4285,42 +4250,42 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="61" t="s">
+      <c r="B74" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="C74" s="89">
+      <c r="C74" s="88">
         <f>'Balance Sheet SEC'!C46*1000000</f>
         <v>54490000000</v>
       </c>
-      <c r="D74" s="89">
+      <c r="D74" s="88">
         <f>'Balance Sheet SEC'!D46*1000000</f>
         <v>53325000000</v>
       </c>
-      <c r="E74" s="89">
+      <c r="E74" s="88">
         <f>'Balance Sheet SEC'!E46*1000000</f>
         <v>49142000000</v>
       </c>
-      <c r="F74" s="123">
+      <c r="F74" s="118">
         <f>'Balance Sheet SEC'!F46*1000000</f>
         <v>49848000000</v>
       </c>
-      <c r="G74" s="89">
+      <c r="G74" s="88">
         <f>F74</f>
         <v>49848000000</v>
       </c>
-      <c r="H74" s="89">
+      <c r="H74" s="88">
         <f t="shared" ref="H74:K74" si="53">G74</f>
         <v>49848000000</v>
       </c>
-      <c r="I74" s="89">
+      <c r="I74" s="88">
         <f>H74</f>
         <v>49848000000</v>
       </c>
-      <c r="J74" s="89">
+      <c r="J74" s="88">
         <f t="shared" si="53"/>
         <v>49848000000</v>
       </c>
-      <c r="K74" s="89">
+      <c r="K74" s="88">
         <f t="shared" si="53"/>
         <v>49848000000</v>
       </c>
@@ -4328,42 +4293,42 @@
     </row>
     <row r="75" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="63" t="s">
-        <v>334</v>
-      </c>
-      <c r="C75" s="89">
+      <c r="B75" s="62" t="s">
+        <v>332</v>
+      </c>
+      <c r="C75" s="88">
         <f>C73+C74</f>
         <v>153157000000</v>
       </c>
-      <c r="D75" s="89">
+      <c r="D75" s="88">
         <f>D73+D74</f>
         <v>162431000000</v>
       </c>
-      <c r="E75" s="89">
+      <c r="E75" s="88">
         <f>E73+E74</f>
         <v>148101000000</v>
       </c>
-      <c r="F75" s="123">
+      <c r="F75" s="118">
         <f>F73+F74</f>
         <v>145129000000</v>
       </c>
-      <c r="G75" s="89">
+      <c r="G75" s="88">
         <f>SUM(G73:G74)</f>
         <v>145129000000</v>
       </c>
-      <c r="H75" s="89">
+      <c r="H75" s="88">
         <f t="shared" ref="H75:K75" si="54">SUM(H73:H74)</f>
         <v>145129000000</v>
       </c>
-      <c r="I75" s="89">
+      <c r="I75" s="88">
         <f t="shared" si="54"/>
         <v>145129000000</v>
       </c>
-      <c r="J75" s="89">
+      <c r="J75" s="88">
         <f t="shared" si="54"/>
         <v>145129000000</v>
       </c>
-      <c r="K75" s="89">
+      <c r="K75" s="88">
         <f t="shared" si="54"/>
         <v>145129000000</v>
       </c>
@@ -4371,49 +4336,49 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="60"/>
+      <c r="B76" s="59"/>
       <c r="F76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="25"/>
     </row>
     <row r="77" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="63" t="s">
-        <v>335</v>
-      </c>
-      <c r="C77" s="110">
+      <c r="B77" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="C77" s="108">
         <f>C75+C71</f>
         <v>258549000000.27365</v>
       </c>
-      <c r="D77" s="110">
+      <c r="D77" s="108">
         <f t="shared" ref="D77:F77" si="55">D75+D71</f>
         <v>287912000000.27795</v>
       </c>
-      <c r="E77" s="110">
+      <c r="E77" s="108">
         <f t="shared" si="55"/>
         <v>302083000000.30688</v>
       </c>
-      <c r="F77" s="99">
+      <c r="F77" s="98">
         <f t="shared" si="55"/>
         <v>290437000000.31342</v>
       </c>
-      <c r="G77" s="110">
+      <c r="G77" s="108">
         <f>G71+G75</f>
         <v>287633400440.26636</v>
       </c>
-      <c r="H77" s="110">
+      <c r="H77" s="108">
         <f t="shared" ref="H77:K77" si="56">H71+H75</f>
         <v>296690472862.14014</v>
       </c>
-      <c r="I77" s="110">
+      <c r="I77" s="108">
         <f t="shared" si="56"/>
         <v>304747043456.6217</v>
       </c>
-      <c r="J77" s="110">
+      <c r="J77" s="108">
         <f t="shared" si="56"/>
         <v>307726475918.6662</v>
       </c>
-      <c r="K77" s="99">
+      <c r="K77" s="98">
         <f t="shared" si="56"/>
         <v>310173913735.61902</v>
       </c>
@@ -4421,17 +4386,17 @@
     </row>
     <row r="78" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="63"/>
+      <c r="B78" s="62"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
-      <c r="F78" s="47"/>
+      <c r="F78" s="46"/>
       <c r="K78" s="1"/>
       <c r="L78" s="25"/>
     </row>
     <row r="79" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="63"/>
+      <c r="B79" s="62"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
       <c r="E79" s="21"/>
@@ -4445,87 +4410,85 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="80"/>
+      <c r="B80" s="79"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="45"/>
+      <c r="F80" s="44"/>
       <c r="K80" s="1"/>
       <c r="L80" s="25"/>
     </row>
     <row r="81" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="84" t="s">
-        <v>336</v>
-      </c>
-      <c r="C81" s="86">
+      <c r="B81" s="83" t="s">
+        <v>334</v>
+      </c>
+      <c r="C81" s="85">
         <f>C44</f>
         <v>2020</v>
       </c>
-      <c r="D81" s="86">
+      <c r="D81" s="85">
         <f t="shared" ref="D81:J81" si="57">D44</f>
         <v>2021</v>
       </c>
-      <c r="E81" s="86">
+      <c r="E81" s="85">
         <f t="shared" si="57"/>
         <v>2022</v>
       </c>
-      <c r="F81" s="87">
+      <c r="F81" s="86">
         <f t="shared" si="57"/>
         <v>2023</v>
       </c>
-      <c r="G81" s="85">
+      <c r="G81" s="84">
         <f t="shared" si="57"/>
         <v>2024</v>
       </c>
-      <c r="H81" s="86">
+      <c r="H81" s="85">
         <f t="shared" si="57"/>
         <v>2025</v>
       </c>
-      <c r="I81" s="86">
+      <c r="I81" s="85">
         <f t="shared" si="57"/>
         <v>2026</v>
       </c>
-      <c r="J81" s="86">
+      <c r="J81" s="85">
         <f t="shared" si="57"/>
         <v>2027</v>
       </c>
-      <c r="K81" s="87">
+      <c r="K81" s="86">
         <f>K44</f>
         <v>2028</v>
       </c>
-      <c r="L81" s="40" t="s">
-        <v>288</v>
-      </c>
+      <c r="L81" s="39"/>
     </row>
     <row r="82" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="120"/>
-      <c r="C82" s="91"/>
-      <c r="D82" s="91"/>
-      <c r="E82" s="91"/>
-      <c r="F82" s="92"/>
+      <c r="B82" s="115"/>
+      <c r="C82" s="90"/>
+      <c r="D82" s="90"/>
+      <c r="E82" s="90"/>
+      <c r="F82" s="91"/>
       <c r="K82" s="1"/>
       <c r="L82" s="25"/>
     </row>
     <row r="83" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="63" t="s">
+      <c r="B83" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C83" s="89">
+      <c r="C83" s="88">
         <f>'Cash Flow Statement SEC'!C22*1000000</f>
         <v>57411000000</v>
       </c>
-      <c r="D83" s="89">
+      <c r="D83" s="88">
         <f>'Cash Flow Statement SEC'!D22*1000000</f>
         <v>94680000000</v>
       </c>
-      <c r="E83" s="89">
+      <c r="E83" s="88">
         <f>'Cash Flow Statement SEC'!E22*1000000</f>
         <v>99803000000</v>
       </c>
-      <c r="F83" s="123">
+      <c r="F83" s="118">
         <f>'Cash Flow Statement SEC'!F22*1000000</f>
         <v>96995000000</v>
       </c>
@@ -4553,22 +4516,22 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="61" t="s">
+      <c r="B84" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C84" s="89">
+      <c r="C84" s="88">
         <f>'Cash Flow Statement SEC'!C25*1000000</f>
         <v>11056000000</v>
       </c>
-      <c r="D84" s="89">
+      <c r="D84" s="88">
         <f>'Cash Flow Statement SEC'!D25*1000000</f>
         <v>11284000000</v>
       </c>
-      <c r="E84" s="89">
+      <c r="E84" s="88">
         <f>'Cash Flow Statement SEC'!E25*1000000</f>
         <v>11104000000</v>
       </c>
-      <c r="F84" s="123">
+      <c r="F84" s="118">
         <f>'Cash Flow Statement SEC'!F25*1000000</f>
         <v>11519000000</v>
       </c>
@@ -4596,8 +4559,8 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
-      <c r="B85" s="62" t="s">
-        <v>337</v>
+      <c r="B85" s="61" t="s">
+        <v>335</v>
       </c>
       <c r="C85" s="21">
         <f>C84/C11</f>
@@ -4611,72 +4574,70 @@
         <f t="shared" si="60"/>
         <v>2.8159298857803657E-2</v>
       </c>
-      <c r="F85" s="31">
+      <c r="F85" s="30">
         <f t="shared" si="60"/>
         <v>3.0053354553400212E-2</v>
       </c>
-      <c r="G85" s="42">
+      <c r="G85" s="41">
         <f>AVERAGE($C85:$F85)</f>
         <v>3.2333335936421154E-2</v>
       </c>
-      <c r="H85" s="42">
+      <c r="H85" s="41">
         <f t="shared" ref="H85:K85" si="61">AVERAGE($C85:$F85)</f>
         <v>3.2333335936421154E-2</v>
       </c>
-      <c r="I85" s="42">
+      <c r="I85" s="41">
         <f t="shared" si="61"/>
         <v>3.2333335936421154E-2</v>
       </c>
-      <c r="J85" s="42">
+      <c r="J85" s="41">
         <f t="shared" si="61"/>
         <v>3.2333335936421154E-2</v>
       </c>
-      <c r="K85" s="42">
+      <c r="K85" s="41">
         <f t="shared" si="61"/>
         <v>3.2333335936421154E-2</v>
       </c>
-      <c r="L85" s="25" t="s">
-        <v>360</v>
-      </c>
+      <c r="L85" s="25"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="61" t="s">
+      <c r="B86" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="C86" s="89">
+      <c r="C86" s="88">
         <f>'Cash Flow Statement YFinance'!B5</f>
         <v>-215000000</v>
       </c>
-      <c r="D86" s="89">
+      <c r="D86" s="88">
         <f>'Cash Flow Statement YFinance'!C5</f>
         <v>-4774000000</v>
       </c>
-      <c r="E86" s="89">
+      <c r="E86" s="88">
         <f>'Cash Flow Statement YFinance'!D5</f>
         <v>895000000</v>
       </c>
-      <c r="F86" s="123">
+      <c r="F86" s="118">
         <f>'Cash Flow Statement YFinance'!E5</f>
         <v>0</v>
       </c>
-      <c r="G86" s="89">
+      <c r="G86" s="88">
         <f>F86</f>
         <v>0</v>
       </c>
-      <c r="H86" s="89">
+      <c r="H86" s="88">
         <f t="shared" ref="H86:K86" si="62">G86</f>
         <v>0</v>
       </c>
-      <c r="I86" s="89">
+      <c r="I86" s="88">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="J86" s="89">
+      <c r="J86" s="88">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="K86" s="89">
+      <c r="K86" s="88">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
@@ -4684,42 +4645,42 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="61" t="s">
+      <c r="B87" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="C87" s="89">
+      <c r="C87" s="88">
         <f>'Cash Flow Statement SEC'!C26*1000000</f>
         <v>6829000000</v>
       </c>
-      <c r="D87" s="89">
+      <c r="D87" s="88">
         <f>'Cash Flow Statement SEC'!D26*1000000</f>
         <v>7906000000</v>
       </c>
-      <c r="E87" s="89">
+      <c r="E87" s="88">
         <f>'Cash Flow Statement SEC'!E26*1000000</f>
         <v>9038000000</v>
       </c>
-      <c r="F87" s="123">
+      <c r="F87" s="118">
         <f>'Cash Flow Statement SEC'!F26*1000000</f>
         <v>10833000000</v>
       </c>
-      <c r="G87" s="89">
+      <c r="G87" s="88">
         <f>F87</f>
         <v>10833000000</v>
       </c>
-      <c r="H87" s="89">
+      <c r="H87" s="88">
         <f t="shared" ref="H87:K87" si="63">G87</f>
         <v>10833000000</v>
       </c>
-      <c r="I87" s="89">
+      <c r="I87" s="88">
         <f t="shared" si="63"/>
         <v>10833000000</v>
       </c>
-      <c r="J87" s="89">
+      <c r="J87" s="88">
         <f t="shared" si="63"/>
         <v>10833000000</v>
       </c>
-      <c r="K87" s="89">
+      <c r="K87" s="88">
         <f t="shared" si="63"/>
         <v>10833000000</v>
       </c>
@@ -4727,42 +4688,42 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="61" t="s">
+      <c r="B88" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="C88" s="89">
+      <c r="C88" s="88">
         <f>'Cash Flow Statement YFinance'!B18</f>
         <v>5690000000</v>
       </c>
-      <c r="D88" s="89">
+      <c r="D88" s="88">
         <f>'Cash Flow Statement YFinance'!C18</f>
         <v>-4911000000</v>
       </c>
-      <c r="E88" s="89">
+      <c r="E88" s="88">
         <f>'Cash Flow Statement YFinance'!D18</f>
         <v>1200000000</v>
       </c>
-      <c r="F88" s="123">
+      <c r="F88" s="118">
         <f>'Cash Flow Statement YFinance'!E18</f>
         <v>-6577000000</v>
       </c>
-      <c r="G88" s="89">
+      <c r="G88" s="88">
         <f>(F54-F71)-(G54-G71)</f>
         <v>-11554018167.789948</v>
       </c>
-      <c r="H88" s="89">
+      <c r="H88" s="88">
         <f t="shared" ref="H88:J88" si="64">(G54-G71)-(H54-H71)</f>
         <v>2742119039.859375</v>
       </c>
-      <c r="I88" s="89">
+      <c r="I88" s="88">
         <f t="shared" si="64"/>
         <v>-10508538440.426178</v>
       </c>
-      <c r="J88" s="89">
+      <c r="J88" s="88">
         <f t="shared" si="64"/>
         <v>-25566513070.993561</v>
       </c>
-      <c r="K88" s="89">
+      <c r="K88" s="88">
         <f t="shared" ref="K88" si="65">(J54-J71)-(K54-K71)</f>
         <v>-29858227801.817169</v>
       </c>
@@ -4770,42 +4731,42 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="61" t="s">
-        <v>338</v>
-      </c>
-      <c r="C89" s="89">
+      <c r="B89" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="C89" s="88">
         <f>'Cash Flow Statement SEC'!C30*1000000</f>
         <v>6917000000</v>
       </c>
-      <c r="D89" s="89">
+      <c r="D89" s="88">
         <f>'Cash Flow Statement SEC'!D30*1000000</f>
         <v>-10125000000</v>
       </c>
-      <c r="E89" s="89">
+      <c r="E89" s="88">
         <f>'Cash Flow Statement SEC'!E30*1000000</f>
         <v>-1823000000</v>
       </c>
-      <c r="F89" s="123">
+      <c r="F89" s="118">
         <f>'Cash Flow Statement SEC'!F30*1000000</f>
         <v>-1688000000</v>
       </c>
-      <c r="G89" s="89">
+      <c r="G89" s="88">
         <f>F49-G49</f>
         <v>-158593493.45924377</v>
       </c>
-      <c r="H89" s="89">
+      <c r="H89" s="88">
         <f>G89</f>
         <v>-158593493.45924377</v>
       </c>
-      <c r="I89" s="89">
+      <c r="I89" s="88">
         <f t="shared" ref="I89:K89" si="66">H89</f>
         <v>-158593493.45924377</v>
       </c>
-      <c r="J89" s="89">
+      <c r="J89" s="88">
         <f t="shared" si="66"/>
         <v>-158593493.45924377</v>
       </c>
-      <c r="K89" s="89">
+      <c r="K89" s="88">
         <f t="shared" si="66"/>
         <v>-158593493.45924377</v>
       </c>
@@ -4813,42 +4774,42 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="61" t="s">
+      <c r="B90" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C90" s="89">
+      <c r="C90" s="88">
         <f>'Balance Sheet SEC'!C24*1000000</f>
         <v>4061000000</v>
       </c>
-      <c r="D90" s="89">
+      <c r="D90" s="88">
         <f>'Balance Sheet SEC'!D24*1000000</f>
         <v>6580000000</v>
       </c>
-      <c r="E90" s="89">
+      <c r="E90" s="88">
         <f>'Balance Sheet SEC'!E24*1000000</f>
         <v>4946000000</v>
       </c>
-      <c r="F90" s="123">
+      <c r="F90" s="118">
         <f>'Balance Sheet SEC'!F24*1000000</f>
         <v>6331000000</v>
       </c>
-      <c r="G90" s="89">
+      <c r="G90" s="88">
         <f>F51-G51</f>
         <v>-68745897.599887848</v>
       </c>
-      <c r="H90" s="89">
+      <c r="H90" s="88">
         <f t="shared" ref="H90:K90" si="67">G51-H51</f>
         <v>-447982212.83199215</v>
       </c>
-      <c r="I90" s="89">
+      <c r="I90" s="88">
         <f t="shared" si="67"/>
         <v>-410863686.62591267</v>
       </c>
-      <c r="J90" s="89">
+      <c r="J90" s="88">
         <f t="shared" si="67"/>
         <v>-362929589.85289001</v>
       </c>
-      <c r="K90" s="89">
+      <c r="K90" s="88">
         <f t="shared" si="67"/>
         <v>-342968462.41098022</v>
       </c>
@@ -4856,42 +4817,42 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="61" t="s">
-        <v>339</v>
-      </c>
-      <c r="C91" s="89">
+      <c r="B91" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="C91" s="88">
         <f>'Cash Flow Statement SEC'!C34*1000000</f>
         <v>-4062000000</v>
       </c>
-      <c r="D91" s="89">
+      <c r="D91" s="88">
         <f>'Cash Flow Statement SEC'!D34*1000000</f>
         <v>12326000000</v>
       </c>
-      <c r="E91" s="89">
+      <c r="E91" s="88">
         <f>'Cash Flow Statement SEC'!E34*1000000</f>
         <v>9448000000</v>
       </c>
-      <c r="F91" s="123">
+      <c r="F91" s="118">
         <f>'Cash Flow Statement SEC'!F34*1000000</f>
         <v>-1889000000</v>
       </c>
-      <c r="G91" s="89">
+      <c r="G91" s="88">
         <f>F65-G65</f>
         <v>-2713100905.7719421</v>
       </c>
-      <c r="H91" s="89">
+      <c r="H91" s="88">
         <f t="shared" ref="H91:K91" si="68">G65-H65</f>
         <v>-5988646454.4591675</v>
       </c>
-      <c r="I91" s="89">
+      <c r="I91" s="88">
         <f t="shared" si="68"/>
         <v>-5630903939.3670502</v>
       </c>
-      <c r="J91" s="89">
+      <c r="J91" s="88">
         <f t="shared" si="68"/>
         <v>-3495103479.1932678</v>
       </c>
-      <c r="K91" s="89">
+      <c r="K91" s="88">
         <f t="shared" si="68"/>
         <v>-2742148353.9397125</v>
       </c>
@@ -4899,118 +4860,118 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="61" t="s">
-        <v>340</v>
-      </c>
-      <c r="C92" s="89">
+      <c r="B92" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="C92" s="88">
         <f>'Cash Flow Statement YFinance'!B17</f>
         <v>2081000000</v>
       </c>
-      <c r="D92" s="89">
+      <c r="D92" s="88">
         <f>'Cash Flow Statement YFinance'!C17</f>
         <v>1676000000</v>
       </c>
-      <c r="E92" s="89">
+      <c r="E92" s="88">
         <f>'Cash Flow Statement YFinance'!D17</f>
         <v>478000000</v>
       </c>
-      <c r="F92" s="123">
+      <c r="F92" s="118">
         <f>'Cash Flow Statement YFinance'!E17</f>
         <v>0</v>
       </c>
-      <c r="G92" s="89">
+      <c r="G92" s="88">
         <v>0</v>
       </c>
-      <c r="H92" s="89">
+      <c r="H92" s="88">
         <v>0</v>
       </c>
-      <c r="I92" s="89">
+      <c r="I92" s="88">
         <v>0</v>
       </c>
-      <c r="J92" s="89">
+      <c r="J92" s="88">
         <v>0</v>
       </c>
-      <c r="K92" s="89">
+      <c r="K92" s="88">
         <v>0</v>
       </c>
       <c r="L92" s="25"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="61" t="s">
+      <c r="B93" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="C93" s="89">
+      <c r="C93" s="88">
         <f>'Cash Flow Statement YFinance'!B8</f>
         <v>-97000000</v>
       </c>
-      <c r="D93" s="89">
+      <c r="D93" s="88">
         <f>'Cash Flow Statement YFinance'!C8</f>
         <v>-4921000000</v>
       </c>
-      <c r="E93" s="89">
+      <c r="E93" s="88">
         <f>'Cash Flow Statement YFinance'!D8</f>
         <v>1006000000</v>
       </c>
-      <c r="F93" s="123">
+      <c r="F93" s="118">
         <f>'Cash Flow Statement YFinance'!E8</f>
         <v>-2227000000</v>
       </c>
-      <c r="G93" s="89">
+      <c r="G93" s="88">
         <v>0</v>
       </c>
-      <c r="H93" s="89">
+      <c r="H93" s="88">
         <v>0</v>
       </c>
-      <c r="I93" s="89">
+      <c r="I93" s="88">
         <v>0</v>
       </c>
-      <c r="J93" s="89">
+      <c r="J93" s="88">
         <v>0</v>
       </c>
-      <c r="K93" s="89">
+      <c r="K93" s="88">
         <v>0</v>
       </c>
       <c r="L93" s="25"/>
     </row>
     <row r="94" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="63" t="s">
-        <v>341</v>
-      </c>
-      <c r="C94" s="121">
+      <c r="B94" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="C94" s="116">
         <f>'Cash Flow Statement SEC'!C36*1000000</f>
         <v>80674000000</v>
       </c>
-      <c r="D94" s="121">
+      <c r="D94" s="116">
         <f>'Cash Flow Statement SEC'!D36*1000000</f>
         <v>104038000000</v>
       </c>
-      <c r="E94" s="121">
+      <c r="E94" s="116">
         <f>'Cash Flow Statement SEC'!E36*1000000</f>
         <v>122151000000</v>
       </c>
-      <c r="F94" s="122">
+      <c r="F94" s="117">
         <f>'Cash Flow Statement SEC'!F36*1000000</f>
         <v>110543000000</v>
       </c>
-      <c r="G94" s="103">
+      <c r="G94" s="101">
         <f>SUM(G83:G84,G89:G93)</f>
         <v>123224923149.92172</v>
       </c>
-      <c r="H94" s="103">
+      <c r="H94" s="101">
         <f t="shared" ref="H94:K94" si="69">SUM(H83:H84,H89:H93)</f>
         <v>127553800133.20488</v>
       </c>
-      <c r="I94" s="103">
+      <c r="I94" s="101">
         <f t="shared" si="69"/>
         <v>135270816860.08028</v>
       </c>
-      <c r="J94" s="103">
+      <c r="J94" s="101">
         <f t="shared" si="69"/>
         <v>143922455605.95352</v>
       </c>
-      <c r="K94" s="103">
+      <c r="K94" s="101">
         <f t="shared" si="69"/>
         <v>150807541317.18457</v>
       </c>
@@ -5018,11 +4979,11 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="89"/>
-      <c r="D95" s="89"/>
-      <c r="E95" s="89"/>
-      <c r="F95" s="123"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="118"/>
       <c r="G95" s="20"/>
       <c r="H95" s="20"/>
       <c r="I95" s="20"/>
@@ -5032,42 +4993,42 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="61" t="s">
-        <v>342</v>
-      </c>
-      <c r="C96" s="89">
+      <c r="B96" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="C96" s="88">
         <f>'Cash Flow Statement SEC'!C42*1000000</f>
         <v>-7309000000</v>
       </c>
-      <c r="D96" s="89">
+      <c r="D96" s="88">
         <f>'Cash Flow Statement SEC'!D42*1000000</f>
         <v>-11085000000</v>
       </c>
-      <c r="E96" s="89">
+      <c r="E96" s="88">
         <f>'Cash Flow Statement SEC'!E42*1000000</f>
         <v>-10708000000</v>
       </c>
-      <c r="F96" s="123">
+      <c r="F96" s="118">
         <f>'Cash Flow Statement SEC'!F42*1000000</f>
         <v>-10959000000</v>
       </c>
-      <c r="G96" s="89">
+      <c r="G96" s="88">
         <f>G115</f>
         <v>-11660343933.237965</v>
       </c>
-      <c r="H96" s="89">
+      <c r="H96" s="88">
         <f t="shared" ref="H96:K96" si="70">H115</f>
         <v>-12476568008.564621</v>
       </c>
-      <c r="I96" s="89">
+      <c r="I96" s="88">
         <f t="shared" si="70"/>
         <v>-13225162089.078499</v>
       </c>
-      <c r="J96" s="89">
+      <c r="J96" s="88">
         <f t="shared" si="70"/>
         <v>-13886420193.532423</v>
       </c>
-      <c r="K96" s="89">
+      <c r="K96" s="88">
         <f t="shared" si="70"/>
         <v>-14511309102.241383</v>
       </c>
@@ -5075,154 +5036,154 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="C97" s="89">
+      <c r="B97" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="C97" s="88">
         <f>'Cash Flow Statement YFinance'!B24</f>
         <v>-1524000000</v>
       </c>
-      <c r="D97" s="89">
+      <c r="D97" s="88">
         <f>'Cash Flow Statement YFinance'!C24</f>
         <v>-33000000</v>
       </c>
-      <c r="E97" s="89">
+      <c r="E97" s="88">
         <f>'Cash Flow Statement YFinance'!D24</f>
         <v>-306000000</v>
       </c>
-      <c r="F97" s="123">
+      <c r="F97" s="118">
         <f>'Cash Flow Statement YFinance'!E24</f>
         <v>0</v>
       </c>
-      <c r="G97" s="89"/>
-      <c r="H97" s="89"/>
-      <c r="I97" s="89"/>
-      <c r="J97" s="89"/>
-      <c r="K97" s="89"/>
+      <c r="G97" s="88"/>
+      <c r="H97" s="88"/>
+      <c r="I97" s="88"/>
+      <c r="J97" s="88"/>
+      <c r="K97" s="88"/>
       <c r="L97" s="25"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="C98" s="89">
+      <c r="B98" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="C98" s="88">
         <f>'Cash Flow Statement YFinance'!B25</f>
         <v>-114938000000</v>
       </c>
-      <c r="D98" s="89">
+      <c r="D98" s="88">
         <f>'Cash Flow Statement YFinance'!C25</f>
         <v>-109558000000</v>
       </c>
-      <c r="E98" s="89">
+      <c r="E98" s="88">
         <f>'Cash Flow Statement YFinance'!D25</f>
         <v>-76923000000</v>
       </c>
-      <c r="F98" s="123">
+      <c r="F98" s="118">
         <f>'Cash Flow Statement YFinance'!E25</f>
         <v>-29513000000</v>
       </c>
-      <c r="G98" s="89"/>
-      <c r="H98" s="89"/>
-      <c r="I98" s="89"/>
-      <c r="J98" s="89"/>
-      <c r="K98" s="89"/>
+      <c r="G98" s="88"/>
+      <c r="H98" s="88"/>
+      <c r="I98" s="88"/>
+      <c r="J98" s="88"/>
+      <c r="K98" s="88"/>
       <c r="L98" s="25"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C99" s="89">
+      <c r="B99" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C99" s="88">
         <f>'Cash Flow Statement YFinance'!B26</f>
         <v>120391000000</v>
       </c>
-      <c r="D99" s="89">
+      <c r="D99" s="88">
         <f>'Cash Flow Statement YFinance'!C26</f>
         <v>106483000000</v>
       </c>
-      <c r="E99" s="89">
+      <c r="E99" s="88">
         <f>'Cash Flow Statement YFinance'!D26</f>
         <v>67363000000</v>
       </c>
-      <c r="F99" s="123">
+      <c r="F99" s="118">
         <f>'Cash Flow Statement YFinance'!E26</f>
         <v>45514000000</v>
       </c>
-      <c r="G99" s="89"/>
-      <c r="H99" s="89"/>
-      <c r="I99" s="89"/>
-      <c r="J99" s="89"/>
-      <c r="K99" s="89"/>
+      <c r="G99" s="88"/>
+      <c r="H99" s="88"/>
+      <c r="I99" s="88"/>
+      <c r="J99" s="88"/>
+      <c r="K99" s="88"/>
       <c r="L99" s="25"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="61" t="s">
-        <v>346</v>
-      </c>
-      <c r="C100" s="89">
+      <c r="B100" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="C100" s="88">
         <f>'Cash Flow Statement YFinance'!B28</f>
         <v>-909000000</v>
       </c>
-      <c r="D100" s="89">
+      <c r="D100" s="88">
         <f>'Cash Flow Statement YFinance'!C28</f>
         <v>-385000000</v>
       </c>
-      <c r="E100" s="89">
+      <c r="E100" s="88">
         <f>'Cash Flow Statement YFinance'!D28</f>
         <v>-2086000000</v>
       </c>
-      <c r="F100" s="123">
+      <c r="F100" s="118">
         <f>'Cash Flow Statement YFinance'!E28</f>
         <v>-1337000000</v>
       </c>
-      <c r="G100" s="89"/>
-      <c r="H100" s="89"/>
-      <c r="I100" s="89"/>
-      <c r="J100" s="89"/>
-      <c r="K100" s="89"/>
+      <c r="G100" s="88"/>
+      <c r="H100" s="88"/>
+      <c r="I100" s="88"/>
+      <c r="J100" s="88"/>
+      <c r="K100" s="88"/>
       <c r="L100" s="25"/>
     </row>
     <row r="101" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="63" t="s">
-        <v>347</v>
-      </c>
-      <c r="C101" s="121">
+      <c r="B101" s="62" t="s">
+        <v>345</v>
+      </c>
+      <c r="C101" s="116">
         <f>SUM(C96:C100)</f>
         <v>-4289000000</v>
       </c>
-      <c r="D101" s="121">
+      <c r="D101" s="116">
         <f t="shared" ref="D101:F101" si="71">SUM(D96:D100)</f>
         <v>-14578000000</v>
       </c>
-      <c r="E101" s="121">
+      <c r="E101" s="116">
         <f t="shared" si="71"/>
         <v>-22660000000</v>
       </c>
-      <c r="F101" s="122">
+      <c r="F101" s="117">
         <f t="shared" si="71"/>
         <v>3705000000</v>
       </c>
-      <c r="G101" s="124">
+      <c r="G101" s="119">
         <f>SUM(G96:G100)</f>
         <v>-11660343933.237965</v>
       </c>
-      <c r="H101" s="121">
+      <c r="H101" s="116">
         <f t="shared" ref="H101:K101" si="72">SUM(H96:H100)</f>
         <v>-12476568008.564621</v>
       </c>
-      <c r="I101" s="121">
+      <c r="I101" s="116">
         <f t="shared" si="72"/>
         <v>-13225162089.078499</v>
       </c>
-      <c r="J101" s="121">
+      <c r="J101" s="116">
         <f t="shared" si="72"/>
         <v>-13886420193.532423</v>
       </c>
-      <c r="K101" s="122">
+      <c r="K101" s="117">
         <f t="shared" si="72"/>
         <v>-14511309102.241383</v>
       </c>
@@ -5230,56 +5191,56 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="60"/>
-      <c r="C102" s="89"/>
-      <c r="D102" s="89"/>
-      <c r="E102" s="89"/>
-      <c r="F102" s="123"/>
-      <c r="G102" s="89"/>
-      <c r="H102" s="89"/>
-      <c r="I102" s="89"/>
-      <c r="J102" s="89"/>
-      <c r="K102" s="89"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="88"/>
+      <c r="D102" s="88"/>
+      <c r="E102" s="88"/>
+      <c r="F102" s="118"/>
+      <c r="G102" s="88"/>
+      <c r="H102" s="88"/>
+      <c r="I102" s="88"/>
+      <c r="J102" s="88"/>
+      <c r="K102" s="88"/>
       <c r="L102" s="25"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="61" t="s">
-        <v>348</v>
-      </c>
-      <c r="C103" s="89">
+      <c r="B103" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="C103" s="88">
         <f>'Cash Flow Statement SEC'!C53*1000000</f>
         <v>-12629000000</v>
       </c>
-      <c r="D103" s="89">
+      <c r="D103" s="88">
         <f>'Cash Flow Statement SEC'!D53*1000000</f>
         <v>-8750000000</v>
       </c>
-      <c r="E103" s="89">
+      <c r="E103" s="88">
         <f>'Cash Flow Statement SEC'!E53*1000000</f>
         <v>-9543000000</v>
       </c>
-      <c r="F103" s="123">
+      <c r="F103" s="118">
         <f>'Cash Flow Statement SEC'!F53*1000000</f>
         <v>-11151000000</v>
       </c>
-      <c r="G103" s="89">
+      <c r="G103" s="88">
         <f>AVERAGE($C$103:$F$103)</f>
         <v>-10518250000</v>
       </c>
-      <c r="H103" s="89">
+      <c r="H103" s="88">
         <f t="shared" ref="H103:K103" si="73">AVERAGE($C$103:$F$103)</f>
         <v>-10518250000</v>
       </c>
-      <c r="I103" s="89">
+      <c r="I103" s="88">
         <f t="shared" si="73"/>
         <v>-10518250000</v>
       </c>
-      <c r="J103" s="89">
+      <c r="J103" s="88">
         <f t="shared" si="73"/>
         <v>-10518250000</v>
       </c>
-      <c r="K103" s="89">
+      <c r="K103" s="88">
         <f t="shared" si="73"/>
         <v>-10518250000</v>
       </c>
@@ -5287,80 +5248,80 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="61" t="s">
-        <v>349</v>
-      </c>
-      <c r="C104" s="89">
+      <c r="B104" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="C104" s="88">
         <f>'Cash Flow Statement YFinance'!B36</f>
         <v>880000000</v>
       </c>
-      <c r="D104" s="89">
+      <c r="D104" s="88">
         <f>'Cash Flow Statement YFinance'!C36</f>
         <v>1105000000</v>
       </c>
-      <c r="E104" s="89">
+      <c r="E104" s="88">
         <f>'Cash Flow Statement YFinance'!D36</f>
         <v>0</v>
       </c>
-      <c r="F104" s="123">
+      <c r="F104" s="118">
         <f>'Cash Flow Statement YFinance'!E36</f>
         <v>0</v>
       </c>
-      <c r="G104" s="89">
+      <c r="G104" s="88">
         <v>0</v>
       </c>
-      <c r="H104" s="89">
+      <c r="H104" s="88">
         <v>0</v>
       </c>
-      <c r="I104" s="89">
+      <c r="I104" s="88">
         <v>0</v>
       </c>
-      <c r="J104" s="89">
+      <c r="J104" s="88">
         <v>0</v>
       </c>
-      <c r="K104" s="89">
+      <c r="K104" s="88">
         <v>0</v>
       </c>
       <c r="L104" s="25"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="61" t="s">
-        <v>350</v>
-      </c>
-      <c r="C105" s="89">
+      <c r="B105" s="60" t="s">
+        <v>348</v>
+      </c>
+      <c r="C105" s="88">
         <f>'Cash Flow Statement SEC'!C51*1000000</f>
         <v>-72358000000</v>
       </c>
-      <c r="D105" s="89">
+      <c r="D105" s="88">
         <f>'Cash Flow Statement SEC'!D51*1000000</f>
         <v>-85971000000</v>
       </c>
-      <c r="E105" s="89">
+      <c r="E105" s="88">
         <f>'Cash Flow Statement SEC'!E51*1000000</f>
         <v>-89402000000</v>
       </c>
-      <c r="F105" s="123">
+      <c r="F105" s="118">
         <f>'Cash Flow Statement SEC'!F51*1000000</f>
         <v>-77550000000</v>
       </c>
-      <c r="G105" s="89">
+      <c r="G105" s="88">
         <f>AVERAGE(C105:F105)</f>
         <v>-81320250000</v>
       </c>
-      <c r="H105" s="89">
+      <c r="H105" s="88">
         <f t="shared" ref="H105:K105" si="74">AVERAGE(D105:G105)</f>
         <v>-83560812500</v>
       </c>
-      <c r="I105" s="89">
+      <c r="I105" s="88">
         <f t="shared" si="74"/>
         <v>-82958265625</v>
       </c>
-      <c r="J105" s="89">
+      <c r="J105" s="88">
         <f t="shared" si="74"/>
         <v>-81347332031.25</v>
       </c>
-      <c r="K105" s="89">
+      <c r="K105" s="88">
         <f t="shared" si="74"/>
         <v>-82296665039.0625</v>
       </c>
@@ -5368,42 +5329,42 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="61" t="s">
-        <v>351</v>
-      </c>
-      <c r="C106" s="89">
+      <c r="B106" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="C106" s="88">
         <f>'Cash Flow Statement SEC'!C50*1000000</f>
         <v>-14081000000</v>
       </c>
-      <c r="D106" s="89">
+      <c r="D106" s="88">
         <f>'Cash Flow Statement SEC'!D50*1000000</f>
         <v>-14467000000</v>
       </c>
-      <c r="E106" s="89">
+      <c r="E106" s="88">
         <f>'Cash Flow Statement SEC'!E50*1000000</f>
         <v>-14841000000</v>
       </c>
-      <c r="F106" s="123">
+      <c r="F106" s="118">
         <f>'Cash Flow Statement SEC'!F50*1000000</f>
         <v>-15025000000</v>
       </c>
-      <c r="G106" s="89">
+      <c r="G106" s="88">
         <f>AVERAGE(C106:F106)</f>
         <v>-14603500000</v>
       </c>
-      <c r="H106" s="89">
+      <c r="H106" s="88">
         <f t="shared" ref="H106:K106" si="75">AVERAGE(D106:G106)</f>
         <v>-14734125000</v>
       </c>
-      <c r="I106" s="89">
+      <c r="I106" s="88">
         <f t="shared" si="75"/>
         <v>-14800906250</v>
       </c>
-      <c r="J106" s="89">
+      <c r="J106" s="88">
         <f t="shared" si="75"/>
         <v>-14790882812.5</v>
       </c>
-      <c r="K106" s="89">
+      <c r="K106" s="88">
         <f t="shared" si="75"/>
         <v>-14732353515.625</v>
       </c>
@@ -5411,80 +5372,80 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="61" t="s">
-        <v>352</v>
-      </c>
-      <c r="C107" s="89">
+      <c r="B107" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="C107" s="88">
         <f>(('Cash Flow Statement SEC'!C52+'Cash Flow Statement SEC'!C54+'Cash Flow Statement SEC'!C49+'Cash Flow Statement SEC'!C55)*1000000)-C104</f>
         <v>11368000000</v>
       </c>
-      <c r="D107" s="89">
+      <c r="D107" s="88">
         <f>(('Cash Flow Statement SEC'!D52+'Cash Flow Statement SEC'!D54+'Cash Flow Statement SEC'!D49+'Cash Flow Statement SEC'!D55)*1000000)-D104</f>
         <v>14730000000</v>
       </c>
-      <c r="E107" s="89">
+      <c r="E107" s="88">
         <f>(('Cash Flow Statement SEC'!E52+'Cash Flow Statement SEC'!E54+'Cash Flow Statement SEC'!E49+'Cash Flow Statement SEC'!E55)*1000000)-E104</f>
         <v>3037000000</v>
       </c>
-      <c r="F107" s="123">
+      <c r="F107" s="118">
         <f>(('Cash Flow Statement SEC'!F52+'Cash Flow Statement SEC'!F54+'Cash Flow Statement SEC'!F49+'Cash Flow Statement SEC'!F55)*1000000)-F104</f>
         <v>-4762000000</v>
       </c>
-      <c r="G107" s="89">
+      <c r="G107" s="88">
         <v>0</v>
       </c>
-      <c r="H107" s="89">
+      <c r="H107" s="88">
         <v>0</v>
       </c>
-      <c r="I107" s="89">
+      <c r="I107" s="88">
         <v>0</v>
       </c>
-      <c r="J107" s="89">
+      <c r="J107" s="88">
         <v>0</v>
       </c>
-      <c r="K107" s="89">
+      <c r="K107" s="88">
         <v>0</v>
       </c>
       <c r="L107" s="25"/>
     </row>
     <row r="108" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="C108" s="121">
+      <c r="B108" s="62" t="s">
+        <v>351</v>
+      </c>
+      <c r="C108" s="116">
         <f>SUM(C103:C107)</f>
         <v>-86820000000</v>
       </c>
-      <c r="D108" s="121">
+      <c r="D108" s="116">
         <f t="shared" ref="D108:F108" si="76">SUM(D103:D107)</f>
         <v>-93353000000</v>
       </c>
-      <c r="E108" s="121">
+      <c r="E108" s="116">
         <f t="shared" si="76"/>
         <v>-110749000000</v>
       </c>
-      <c r="F108" s="122">
+      <c r="F108" s="117">
         <f t="shared" si="76"/>
         <v>-108488000000</v>
       </c>
-      <c r="G108" s="124">
+      <c r="G108" s="119">
         <f>SUM(G103:G107)</f>
         <v>-106442000000</v>
       </c>
-      <c r="H108" s="121">
+      <c r="H108" s="116">
         <f t="shared" ref="H108:K108" si="77">SUM(H103:H107)</f>
         <v>-108813187500</v>
       </c>
-      <c r="I108" s="121">
+      <c r="I108" s="116">
         <f t="shared" si="77"/>
         <v>-108277421875</v>
       </c>
-      <c r="J108" s="121">
+      <c r="J108" s="116">
         <f t="shared" si="77"/>
         <v>-106656464843.75</v>
       </c>
-      <c r="K108" s="122">
+      <c r="K108" s="117">
         <f t="shared" si="77"/>
         <v>-107547268554.6875</v>
       </c>
@@ -5492,32 +5453,32 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="60"/>
-      <c r="C109" s="89"/>
-      <c r="D109" s="89"/>
-      <c r="E109" s="89"/>
-      <c r="F109" s="123"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="88"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="118"/>
       <c r="K109" s="1"/>
       <c r="L109" s="25"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="61" t="s">
-        <v>354</v>
-      </c>
-      <c r="C110" s="89">
+      <c r="B110" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="C110" s="88">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D110" s="89">
+      <c r="D110" s="88">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E110" s="89">
+      <c r="E110" s="88">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F110" s="123">
+      <c r="F110" s="118">
         <f>0</f>
         <v>0</v>
       </c>
@@ -5526,42 +5487,42 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="61" t="s">
-        <v>355</v>
-      </c>
-      <c r="C111" s="121">
+      <c r="B111" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="C111" s="116">
         <f>'Cash Flow Statement SEC'!C59*1000000</f>
         <v>-10435000000</v>
       </c>
-      <c r="D111" s="121">
+      <c r="D111" s="116">
         <f>'Cash Flow Statement SEC'!D59*1000000</f>
         <v>-3860000000</v>
       </c>
-      <c r="E111" s="121">
+      <c r="E111" s="116">
         <f>'Cash Flow Statement SEC'!E59*1000000</f>
         <v>-10952000000</v>
       </c>
-      <c r="F111" s="122">
+      <c r="F111" s="117">
         <f>'Cash Flow Statement SEC'!F59*1000000</f>
         <v>5760000000</v>
       </c>
-      <c r="G111" s="110">
+      <c r="G111" s="108">
         <f>G94+G101+G108</f>
         <v>5122579216.6837616</v>
       </c>
-      <c r="H111" s="110">
+      <c r="H111" s="108">
         <f t="shared" ref="H111:K111" si="78">H94+H101+H108</f>
         <v>6264044624.6402588</v>
       </c>
-      <c r="I111" s="110">
+      <c r="I111" s="108">
         <f t="shared" si="78"/>
         <v>13768232896.00177</v>
       </c>
-      <c r="J111" s="110">
+      <c r="J111" s="108">
         <f t="shared" si="78"/>
         <v>23379570568.671097</v>
       </c>
-      <c r="K111" s="110">
+      <c r="K111" s="108">
         <f t="shared" si="78"/>
         <v>28748963660.255692</v>
       </c>
@@ -5569,22 +5530,22 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="61" t="s">
-        <v>356</v>
-      </c>
-      <c r="C112" s="89">
+      <c r="B112" s="60" t="s">
+        <v>354</v>
+      </c>
+      <c r="C112" s="88">
         <f>'Cash Flow Statement SEC'!C61*1000000</f>
         <v>39789000000</v>
       </c>
-      <c r="D112" s="89">
+      <c r="D112" s="88">
         <f>'Cash Flow Statement SEC'!D61*1000000</f>
         <v>35929000000</v>
       </c>
-      <c r="E112" s="89">
+      <c r="E112" s="88">
         <f>'Cash Flow Statement SEC'!E61*1000000</f>
         <v>24977000000</v>
       </c>
-      <c r="F112" s="123">
+      <c r="F112" s="118">
         <f>'Cash Flow Statement SEC'!F61*1000000</f>
         <v>30737000000</v>
       </c>
@@ -5612,42 +5573,42 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
-      <c r="B113" s="61" t="s">
-        <v>357</v>
-      </c>
-      <c r="C113" s="89">
+      <c r="B113" s="60" t="s">
+        <v>355</v>
+      </c>
+      <c r="C113" s="88">
         <f>'Cash Flow Statement YFinance'!B45</f>
         <v>50224000000</v>
       </c>
-      <c r="D113" s="89">
+      <c r="D113" s="88">
         <f>C112</f>
         <v>39789000000</v>
       </c>
-      <c r="E113" s="89">
+      <c r="E113" s="88">
         <f t="shared" ref="E113:F113" si="80">D112</f>
         <v>35929000000</v>
       </c>
-      <c r="F113" s="123">
+      <c r="F113" s="118">
         <f t="shared" si="80"/>
         <v>24977000000</v>
       </c>
-      <c r="G113" s="65">
+      <c r="G113" s="64">
         <f>F112</f>
         <v>30737000000</v>
       </c>
-      <c r="H113" s="65">
+      <c r="H113" s="64">
         <f t="shared" ref="H113:K113" si="81">G112</f>
         <v>35859579216.683762</v>
       </c>
-      <c r="I113" s="65">
+      <c r="I113" s="64">
         <f t="shared" si="81"/>
         <v>42123623841.32402</v>
       </c>
-      <c r="J113" s="65">
+      <c r="J113" s="64">
         <f t="shared" si="81"/>
         <v>55891856737.32579</v>
       </c>
-      <c r="K113" s="65">
+      <c r="K113" s="64">
         <f t="shared" si="81"/>
         <v>79271427305.996887</v>
       </c>
@@ -5655,22 +5616,22 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-      <c r="B114" s="61" t="s">
+      <c r="B114" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="C114" s="89">
+      <c r="C114" s="88">
         <f>C94</f>
         <v>80674000000</v>
       </c>
-      <c r="D114" s="89">
+      <c r="D114" s="88">
         <f t="shared" ref="D114:F114" si="82">D94</f>
         <v>104038000000</v>
       </c>
-      <c r="E114" s="89">
+      <c r="E114" s="88">
         <f t="shared" si="82"/>
         <v>122151000000</v>
       </c>
-      <c r="F114" s="123">
+      <c r="F114" s="118">
         <f t="shared" si="82"/>
         <v>110543000000</v>
       </c>
@@ -5698,22 +5659,22 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-      <c r="B115" s="61" t="s">
+      <c r="B115" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="C115" s="89">
+      <c r="C115" s="88">
         <f>'Cash Flow Statement YFinance'!B49</f>
         <v>-7309000000</v>
       </c>
-      <c r="D115" s="89">
+      <c r="D115" s="88">
         <f>'Cash Flow Statement YFinance'!C49</f>
         <v>-11085000000</v>
       </c>
-      <c r="E115" s="89">
+      <c r="E115" s="88">
         <f>'Cash Flow Statement YFinance'!D49</f>
         <v>-10708000000</v>
       </c>
-      <c r="F115" s="123">
+      <c r="F115" s="118">
         <f>'Cash Flow Statement YFinance'!E49</f>
         <v>-10959000000</v>
       </c>
@@ -5741,8 +5702,8 @@
     </row>
     <row r="116" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-      <c r="B116" s="64" t="s">
-        <v>358</v>
+      <c r="B116" s="63" t="s">
+        <v>356</v>
       </c>
       <c r="C116" s="21">
         <f>C115/C11</f>
@@ -5756,27 +5717,27 @@
         <f t="shared" si="85"/>
         <v>-2.7155058732831552E-2</v>
       </c>
-      <c r="F116" s="31">
+      <c r="F116" s="30">
         <f t="shared" si="85"/>
         <v>-2.859230076835775E-2</v>
       </c>
-      <c r="G116" s="48">
+      <c r="G116" s="47">
         <f>AVERAGE($C$116:$F$116)</f>
         <v>-2.8168633661630679E-2</v>
       </c>
-      <c r="H116" s="48">
+      <c r="H116" s="47">
         <f t="shared" ref="H116:K116" si="86">AVERAGE($C$116:$F$116)</f>
         <v>-2.8168633661630679E-2</v>
       </c>
-      <c r="I116" s="48">
+      <c r="I116" s="47">
         <f t="shared" si="86"/>
         <v>-2.8168633661630679E-2</v>
       </c>
-      <c r="J116" s="48">
+      <c r="J116" s="47">
         <f t="shared" si="86"/>
         <v>-2.8168633661630679E-2</v>
       </c>
-      <c r="K116" s="48">
+      <c r="K116" s="47">
         <f t="shared" si="86"/>
         <v>-2.8168633661630679E-2</v>
       </c>
@@ -5784,42 +5745,42 @@
     </row>
     <row r="117" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
-      <c r="B117" s="83" t="s">
+      <c r="B117" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="C117" s="121">
+      <c r="C117" s="116">
         <f>'Cash Flow Statement YFinance'!B54</f>
         <v>73365000000</v>
       </c>
-      <c r="D117" s="121">
+      <c r="D117" s="116">
         <f>'Cash Flow Statement YFinance'!C54</f>
         <v>92953000000</v>
       </c>
-      <c r="E117" s="121">
+      <c r="E117" s="116">
         <f>'Cash Flow Statement YFinance'!D54</f>
         <v>111443000000</v>
       </c>
-      <c r="F117" s="122">
+      <c r="F117" s="117">
         <f>'Cash Flow Statement YFinance'!E54</f>
         <v>99584000000</v>
       </c>
-      <c r="G117" s="110">
+      <c r="G117" s="108">
         <f>SUM(G114:G115)</f>
         <v>111564579216.68376</v>
       </c>
-      <c r="H117" s="128">
+      <c r="H117" s="123">
         <f>H36+H84-H88-H115</f>
         <v>164533749857.95569</v>
       </c>
-      <c r="I117" s="128">
+      <c r="I117" s="123">
         <f t="shared" ref="I117:K117" si="87">I36+I84-I88-I115</f>
         <v>186968924710.02322</v>
       </c>
-      <c r="J117" s="128">
+      <c r="J117" s="123">
         <f t="shared" si="87"/>
         <v>210139889685.66467</v>
       </c>
-      <c r="K117" s="128">
+      <c r="K117" s="123">
         <f t="shared" si="87"/>
         <v>222098380292.58331</v>
       </c>
@@ -5829,24 +5790,24 @@
       <c r="H118" s="20"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C125">
-        <v>16120000000</v>
-      </c>
-      <c r="D125" s="129"/>
-      <c r="E125" s="129"/>
-      <c r="F125" s="129"/>
+      <c r="D125" s="124"/>
+      <c r="E125" s="124"/>
+      <c r="F125" s="124"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L12:L18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AA98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5871,203 +5832,205 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="E2" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="E2" s="56" t="s">
-        <v>304</v>
-      </c>
-      <c r="F2" s="58"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3" s="94">
+      <c r="C3" s="93">
         <f>F20</f>
         <v>0.10069769946768635</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="F3" s="94">
+      <c r="E3" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" s="93">
         <v>3.8100000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="37"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="1"/>
-      <c r="E4" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="F4" s="95">
+      <c r="E4" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="F4" s="94">
         <v>3.7400000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="30">
+        <v>0.04</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="31">
-        <v>0.04</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="C6" s="30">
+      <c r="C6" s="88">
         <f>(G27*(1+C5))/(C3-C5)</f>
         <v>3805454202218.2368</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="F6" s="94">
+      <c r="E6" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="F6" s="93">
         <f>AVERAGE(F3:F4)</f>
         <v>3.7750000000000006E-2</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="37"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="1"/>
-      <c r="E7" s="37" t="s">
-        <v>308</v>
+      <c r="E7" s="36" t="s">
+        <v>306</v>
       </c>
       <c r="F7" s="1">
         <v>1.18</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="C8" s="111">
+      <c r="B8" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="88">
         <f>C6/((1+C3)^5)</f>
         <v>2355408325618.8989</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="F8" s="96">
+      <c r="E8" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="95">
         <v>5.5E-2</v>
       </c>
-      <c r="H8" s="126"/>
-      <c r="I8" s="89"/>
-      <c r="K8" s="126"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="88"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="C9" s="112">
+      <c r="B9" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="109">
         <f>SUM(C28:G28)</f>
         <v>658003504117.43372</v>
       </c>
-      <c r="E9" s="59" t="s">
-        <v>309</v>
-      </c>
-      <c r="F9" s="97">
+      <c r="E9" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="F9" s="96">
         <f>F6+F7*(F8)</f>
         <v>0.10265000000000001</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="89"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="88"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10" s="113">
+      <c r="B10" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" s="88">
         <f>SUM(C8:C9)</f>
         <v>3013411829736.3325</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="37"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="1"/>
-      <c r="E11" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="F11" s="49">
+      <c r="E11" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" s="48">
         <f>'Statement Model'!C7</f>
         <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="E12" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="F12" s="98">
+      <c r="B12" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="88">
+        <v>0</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="F12" s="97">
         <v>3416000000000</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="C13" s="113">
+      <c r="B13" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="88">
         <f>C10-C12</f>
         <v>3013411829736.3325</v>
       </c>
-      <c r="E13" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="F13" s="75">
+      <c r="E13" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="F13" s="74">
         <f>'Balance Sheet SEC'!F20*1000000</f>
         <v>29965000000</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="37"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="1"/>
-      <c r="E14" s="37" t="s">
-        <v>313</v>
+      <c r="E14" s="36" t="s">
+        <v>311</v>
       </c>
       <c r="F14" s="20">
         <f>'Statement Model'!F67+'Statement Model'!F73</f>
         <v>111088000000</v>
       </c>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="C15" s="114">
+      <c r="B15" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="88">
         <f>C13/'Statement Model'!C6</f>
         <v>195.6017133832961</v>
       </c>
-      <c r="E15" s="59" t="s">
-        <v>314</v>
-      </c>
-      <c r="F15" s="99">
+      <c r="E15" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="F15" s="98">
         <f>F12-F13+F14</f>
         <v>3497123000000</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="C16" s="114">
+      <c r="B16" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" s="88">
         <f>'Statement Model'!C5</f>
         <v>224.72</v>
       </c>
-      <c r="E16" s="37"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="1"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
@@ -6076,12 +6039,12 @@
       <c r="O16" s="20"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="37"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="1"/>
-      <c r="E17" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="F17" s="93">
+      <c r="E17" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" s="92">
         <f>F14</f>
         <v>111088000000</v>
       </c>
@@ -6092,18 +6055,18 @@
       <c r="O17" s="20"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="60" t="str">
+      <c r="B18" s="59" t="str">
         <f>IF(C18&gt;0,"Potential Upside ($)","Potential Downside ($)")</f>
         <v>Potential Downside ($)</v>
       </c>
-      <c r="C18" s="115">
+      <c r="C18" s="110">
         <f>C15-C16</f>
         <v>-29.118286616703898</v>
       </c>
-      <c r="E18" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="F18" s="132">
+      <c r="E18" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="F18" s="127">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="K18" s="20"/>
@@ -6114,15 +6077,15 @@
       <c r="P18" s="20"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="80" t="str">
+      <c r="B19" s="79" t="str">
         <f>IF(C19&gt;0,"Potential Upside (%)","Potential Downside (%)")</f>
         <v>Potential Downside (%)</v>
       </c>
-      <c r="C19" s="116">
+      <c r="C19" s="111">
         <f>C18/C16</f>
         <v>-0.12957585714090378</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="1"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
@@ -6131,18 +6094,18 @@
       <c r="O19" s="20"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E20" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="F20" s="100">
+      <c r="E20" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="F20" s="99">
         <f>(F15/(F15+F17))*F9+(F17/(F15+F17))*F18*(1-F11)</f>
         <v>0.10069769946768635</v>
       </c>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="K22" s="20"/>
@@ -6151,26 +6114,26 @@
       <c r="N22" s="20"/>
     </row>
     <row r="23" spans="2:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="C23" s="52">
+      <c r="B23" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" s="51">
         <f>'Statement Model'!G9</f>
         <v>2024</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="51">
         <f>'Statement Model'!H9</f>
         <v>2025</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="51">
         <f>'Statement Model'!I9</f>
         <v>2026</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="51">
         <f>'Statement Model'!J9</f>
         <v>2027</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="52">
         <f>'Statement Model'!K9</f>
         <v>2028</v>
       </c>
@@ -6178,11 +6141,11 @@
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="25"/>
       <c r="G24" s="1"/>
-      <c r="J24" s="127"/>
+      <c r="J24" s="122"/>
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="6">
@@ -6205,17 +6168,17 @@
         <f>'Statement Model'!K27</f>
         <v>146871473431.41</v>
       </c>
-      <c r="J25" s="127"/>
+      <c r="J25" s="122"/>
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="25"/>
       <c r="G26" s="1"/>
-      <c r="J26" s="127"/>
+      <c r="J26" s="122"/>
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>284</v>
       </c>
       <c r="C27" s="20">
@@ -6238,143 +6201,143 @@
         <f>'Statement Model'!K117</f>
         <v>222098380292.58331</v>
       </c>
-      <c r="J27" s="127"/>
+      <c r="J27" s="122"/>
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="C28" s="131">
+      <c r="B28" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="126">
         <f>C27/((1+$C$3)^1)</f>
         <v>101358056140.78966</v>
       </c>
-      <c r="D28" s="131">
+      <c r="D28" s="126">
         <f>D27/((1+$C$3)^2)</f>
         <v>135805975111.8252</v>
       </c>
-      <c r="E28" s="131">
+      <c r="E28" s="126">
         <f>E27/((1+$C$3)^3)</f>
         <v>140205565696.82755</v>
       </c>
-      <c r="F28" s="131">
+      <c r="F28" s="126">
         <f>F27/((1+$C$3)^4)</f>
         <v>143164804598.66223</v>
       </c>
-      <c r="G28" s="131">
+      <c r="G28" s="126">
         <f>G27/((1+$C$3)^5)</f>
         <v>137469102569.32907</v>
       </c>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="J29" s="127"/>
+      <c r="J29" s="122"/>
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="J30" s="127"/>
+      <c r="J30" s="122"/>
       <c r="K30" s="20"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D37" s="127"/>
-      <c r="E37" s="89"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="88"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D38" s="127"/>
-      <c r="E38" s="89"/>
-      <c r="I38" s="89"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="88"/>
+      <c r="I38" s="88"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D39" s="127"/>
-      <c r="E39" s="89"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="89"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="88"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="88"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D40" s="127"/>
-      <c r="E40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="89"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="88"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="F41" s="127"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="89"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="88"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="F42" s="127"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="89"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="88"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="F43" s="127"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="89"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="88"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I44" s="89"/>
+      <c r="I44" s="88"/>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I45" s="89"/>
+      <c r="I45" s="88"/>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I46" s="89"/>
+      <c r="I46" s="88"/>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I47" s="89"/>
+      <c r="I47" s="88"/>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I48" s="89"/>
+      <c r="I48" s="88"/>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I49" s="89"/>
+      <c r="I49" s="88"/>
     </row>
     <row r="50" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="89"/>
+      <c r="I50" s="88"/>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="89"/>
+      <c r="I51" s="88"/>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I52" s="89"/>
+      <c r="I52" s="88"/>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I53" s="89"/>
+      <c r="I53" s="88"/>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I54" s="89"/>
+      <c r="I54" s="88"/>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I59" s="127"/>
+      <c r="I59" s="122"/>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I60" s="127"/>
+      <c r="I60" s="122"/>
     </row>
     <row r="62" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I62" s="127"/>
+      <c r="I62" s="122"/>
     </row>
     <row r="63" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I63" s="127"/>
+      <c r="I63" s="122"/>
     </row>
     <row r="64" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I64" s="20"/>
     </row>
     <row r="65" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="I65" s="127"/>
-      <c r="J65" s="89"/>
-      <c r="T65" s="88"/>
-      <c r="U65" s="88"/>
-      <c r="V65" s="88"/>
-      <c r="W65" s="89"/>
-      <c r="X65" s="89"/>
-      <c r="Y65" s="89"/>
-      <c r="Z65" s="89"/>
+      <c r="I65" s="122"/>
+      <c r="J65" s="88"/>
+      <c r="T65" s="87"/>
+      <c r="U65" s="87"/>
+      <c r="V65" s="87"/>
+      <c r="W65" s="88"/>
+      <c r="X65" s="88"/>
+      <c r="Y65" s="88"/>
+      <c r="Z65" s="88"/>
     </row>
     <row r="66" spans="4:27" x14ac:dyDescent="0.2">
       <c r="N66" s="6"/>
@@ -6386,18 +6349,18 @@
       <c r="W66" s="6"/>
     </row>
     <row r="67" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="N67" s="89"/>
-      <c r="O67" s="89"/>
-      <c r="P67" s="89"/>
-      <c r="Q67" s="89"/>
-      <c r="R67" s="89"/>
-      <c r="S67" s="89"/>
-      <c r="T67" s="89"/>
-      <c r="U67" s="89"/>
-      <c r="V67" s="89"/>
+      <c r="N67" s="88"/>
+      <c r="O67" s="88"/>
+      <c r="P67" s="88"/>
+      <c r="Q67" s="88"/>
+      <c r="R67" s="88"/>
+      <c r="S67" s="88"/>
+      <c r="T67" s="88"/>
+      <c r="U67" s="88"/>
+      <c r="V67" s="88"/>
     </row>
     <row r="70" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="U70" s="127"/>
+      <c r="U70" s="122"/>
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
       <c r="Y70" s="20"/>
@@ -6405,193 +6368,193 @@
       <c r="AA70" s="20"/>
     </row>
     <row r="71" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="I71" s="89"/>
-      <c r="J71" s="89"/>
-      <c r="K71" s="89"/>
-      <c r="P71" s="89"/>
-      <c r="Q71" s="89"/>
-      <c r="R71" s="89"/>
-      <c r="U71" s="127"/>
-      <c r="X71" s="127"/>
+      <c r="I71" s="88"/>
+      <c r="J71" s="88"/>
+      <c r="K71" s="88"/>
+      <c r="P71" s="88"/>
+      <c r="Q71" s="88"/>
+      <c r="R71" s="88"/>
+      <c r="U71" s="122"/>
+      <c r="X71" s="122"/>
     </row>
     <row r="72" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D72" s="67"/>
-      <c r="G72" s="89"/>
-      <c r="H72" s="127"/>
-      <c r="I72" s="89"/>
-      <c r="J72" s="89"/>
-      <c r="K72" s="89"/>
-      <c r="U72" s="127"/>
-      <c r="X72" s="127"/>
+      <c r="D72" s="66"/>
+      <c r="G72" s="88"/>
+      <c r="H72" s="122"/>
+      <c r="I72" s="88"/>
+      <c r="J72" s="88"/>
+      <c r="K72" s="88"/>
+      <c r="U72" s="122"/>
+      <c r="X72" s="122"/>
     </row>
     <row r="73" spans="4:27" x14ac:dyDescent="0.2">
       <c r="D73" s="6"/>
-      <c r="G73" s="89"/>
-      <c r="H73" s="127"/>
-      <c r="I73" s="89"/>
-      <c r="J73" s="89"/>
-      <c r="K73" s="89"/>
-      <c r="U73" s="127"/>
-      <c r="X73" s="127"/>
+      <c r="G73" s="88"/>
+      <c r="H73" s="122"/>
+      <c r="I73" s="88"/>
+      <c r="J73" s="88"/>
+      <c r="K73" s="88"/>
+      <c r="U73" s="122"/>
+      <c r="X73" s="122"/>
     </row>
     <row r="74" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="H74" s="127"/>
-      <c r="I74" s="89"/>
-      <c r="J74" s="89"/>
-      <c r="K74" s="89"/>
-      <c r="U74" s="127"/>
-      <c r="X74" s="127"/>
+      <c r="H74" s="122"/>
+      <c r="I74" s="88"/>
+      <c r="J74" s="88"/>
+      <c r="K74" s="88"/>
+      <c r="U74" s="122"/>
+      <c r="X74" s="122"/>
     </row>
     <row r="75" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="H75" s="127"/>
-      <c r="I75" s="89"/>
-      <c r="J75" s="89"/>
-      <c r="K75" s="89"/>
-      <c r="X75" s="127"/>
+      <c r="H75" s="122"/>
+      <c r="I75" s="88"/>
+      <c r="J75" s="88"/>
+      <c r="K75" s="88"/>
+      <c r="X75" s="122"/>
     </row>
     <row r="76" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="H76" s="127"/>
-      <c r="I76" s="89"/>
-      <c r="J76" s="89"/>
-      <c r="K76" s="89"/>
+      <c r="H76" s="122"/>
+      <c r="I76" s="88"/>
+      <c r="J76" s="88"/>
+      <c r="K76" s="88"/>
     </row>
     <row r="77" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D77" s="89"/>
-      <c r="H77" s="127"/>
-      <c r="I77" s="89"/>
-      <c r="J77" s="89"/>
-      <c r="K77" s="89"/>
+      <c r="D77" s="88"/>
+      <c r="H77" s="122"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="88"/>
     </row>
     <row r="78" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="H78" s="127"/>
-      <c r="I78" s="89"/>
-      <c r="J78" s="89"/>
-      <c r="K78" s="89"/>
+      <c r="H78" s="122"/>
+      <c r="I78" s="88"/>
+      <c r="J78" s="88"/>
+      <c r="K78" s="88"/>
     </row>
     <row r="79" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="H79" s="127"/>
-      <c r="I79" s="89"/>
-      <c r="J79" s="89"/>
-      <c r="K79" s="89"/>
+      <c r="H79" s="122"/>
+      <c r="I79" s="88"/>
+      <c r="J79" s="88"/>
+      <c r="K79" s="88"/>
     </row>
     <row r="80" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="H80" s="127"/>
-      <c r="I80" s="89"/>
-      <c r="J80" s="89"/>
-      <c r="K80" s="89"/>
+      <c r="H80" s="122"/>
+      <c r="I80" s="88"/>
+      <c r="J80" s="88"/>
+      <c r="K80" s="88"/>
     </row>
     <row r="81" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="I81" s="127"/>
-      <c r="J81" s="89"/>
+      <c r="I81" s="122"/>
+      <c r="J81" s="88"/>
     </row>
     <row r="82" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="I82" s="127"/>
-      <c r="J82" s="89"/>
+      <c r="I82" s="122"/>
+      <c r="J82" s="88"/>
     </row>
     <row r="83" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="I83" s="127"/>
-      <c r="J83" s="89"/>
+      <c r="I83" s="122"/>
+      <c r="J83" s="88"/>
     </row>
     <row r="84" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="J84" s="89"/>
+      <c r="J84" s="88"/>
     </row>
     <row r="85" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="J85" s="89"/>
-      <c r="L85" s="89"/>
+      <c r="J85" s="88"/>
+      <c r="L85" s="88"/>
     </row>
     <row r="86" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="J86" s="89"/>
-      <c r="L86" s="89"/>
+      <c r="J86" s="88"/>
+      <c r="L86" s="88"/>
     </row>
     <row r="87" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G87" s="127"/>
-      <c r="H87" s="89"/>
-      <c r="I87" s="65"/>
-      <c r="K87" s="127"/>
-      <c r="L87" s="89"/>
-      <c r="M87" s="89"/>
+      <c r="G87" s="122"/>
+      <c r="H87" s="88"/>
+      <c r="I87" s="64"/>
+      <c r="K87" s="122"/>
+      <c r="L87" s="88"/>
+      <c r="M87" s="88"/>
     </row>
     <row r="88" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G88" s="127"/>
-      <c r="H88" s="89"/>
-      <c r="I88" s="65"/>
-      <c r="J88" s="65"/>
-      <c r="K88" s="127"/>
-      <c r="L88" s="89"/>
-      <c r="M88" s="89"/>
+      <c r="G88" s="122"/>
+      <c r="H88" s="88"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="64"/>
+      <c r="K88" s="122"/>
+      <c r="L88" s="88"/>
+      <c r="M88" s="88"/>
     </row>
     <row r="89" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G89" s="127"/>
-      <c r="H89" s="89"/>
-      <c r="I89" s="65"/>
-      <c r="J89" s="65"/>
-      <c r="K89" s="127"/>
-      <c r="L89" s="89"/>
-      <c r="M89" s="89"/>
+      <c r="G89" s="122"/>
+      <c r="H89" s="88"/>
+      <c r="I89" s="64"/>
+      <c r="J89" s="64"/>
+      <c r="K89" s="122"/>
+      <c r="L89" s="88"/>
+      <c r="M89" s="88"/>
     </row>
     <row r="90" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G90" s="127"/>
-      <c r="H90" s="89"/>
-      <c r="I90" s="65"/>
-      <c r="J90" s="65"/>
-      <c r="K90" s="127"/>
-      <c r="L90" s="89"/>
-      <c r="M90" s="89"/>
+      <c r="G90" s="122"/>
+      <c r="H90" s="88"/>
+      <c r="I90" s="64"/>
+      <c r="J90" s="64"/>
+      <c r="K90" s="122"/>
+      <c r="L90" s="88"/>
+      <c r="M90" s="88"/>
     </row>
     <row r="91" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G91" s="127"/>
-      <c r="H91" s="89"/>
+      <c r="G91" s="122"/>
+      <c r="H91" s="88"/>
       <c r="I91" s="6"/>
-      <c r="J91" s="65"/>
-      <c r="K91" s="127"/>
-      <c r="L91" s="89"/>
-      <c r="M91" s="89"/>
+      <c r="J91" s="64"/>
+      <c r="K91" s="122"/>
+      <c r="L91" s="88"/>
+      <c r="M91" s="88"/>
     </row>
     <row r="92" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G92" s="127"/>
-      <c r="H92" s="89"/>
+      <c r="G92" s="122"/>
+      <c r="H92" s="88"/>
       <c r="I92" s="6"/>
-      <c r="J92" s="65"/>
-      <c r="K92" s="127"/>
-      <c r="L92" s="89"/>
-      <c r="M92" s="89"/>
+      <c r="J92" s="64"/>
+      <c r="K92" s="122"/>
+      <c r="L92" s="88"/>
+      <c r="M92" s="88"/>
     </row>
     <row r="93" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G93" s="127"/>
-      <c r="H93" s="89"/>
+      <c r="G93" s="122"/>
+      <c r="H93" s="88"/>
       <c r="I93" s="6"/>
-      <c r="J93" s="65"/>
-      <c r="K93" s="127"/>
-      <c r="L93" s="89"/>
-      <c r="M93" s="89"/>
+      <c r="J93" s="64"/>
+      <c r="K93" s="122"/>
+      <c r="L93" s="88"/>
+      <c r="M93" s="88"/>
     </row>
     <row r="94" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G94" s="127"/>
-      <c r="H94" s="89"/>
+      <c r="G94" s="122"/>
+      <c r="H94" s="88"/>
       <c r="I94" s="6"/>
-      <c r="J94" s="65"/>
-      <c r="K94" s="127"/>
-      <c r="L94" s="89"/>
-      <c r="M94" s="89"/>
+      <c r="J94" s="64"/>
+      <c r="K94" s="122"/>
+      <c r="L94" s="88"/>
+      <c r="M94" s="88"/>
     </row>
     <row r="95" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G95" s="127"/>
-      <c r="H95" s="89"/>
+      <c r="G95" s="122"/>
+      <c r="H95" s="88"/>
       <c r="I95" s="6"/>
-      <c r="J95" s="65"/>
-      <c r="K95" s="127"/>
-      <c r="L95" s="89"/>
-      <c r="M95" s="89"/>
+      <c r="J95" s="64"/>
+      <c r="K95" s="122"/>
+      <c r="L95" s="88"/>
+      <c r="M95" s="88"/>
     </row>
     <row r="96" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="J96" s="89"/>
-      <c r="L96" s="89"/>
+      <c r="J96" s="88"/>
+      <c r="L96" s="88"/>
     </row>
     <row r="97" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L97" s="89"/>
+      <c r="L97" s="88"/>
     </row>
     <row r="98" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L98" s="89"/>
+      <c r="L98" s="88"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -6607,7 +6570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
@@ -7542,7 +7505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
@@ -7814,96 +7777,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="135"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="135"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="134"/>
+      <c r="C10" s="130"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="130"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="134"/>
+      <c r="C13" s="130"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="134"/>
+      <c r="C14" s="130"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
@@ -8460,7 +8423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
@@ -8732,81 +8695,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="135"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="135"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
@@ -9570,7 +9533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -10269,7 +10232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -10419,7 +10382,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="130" t="s">
+      <c r="A9" s="125" t="s">
         <v>138</v>
       </c>
       <c r="B9">
@@ -11425,7 +11388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -12330,7 +12293,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="88"/>
+      <c r="B56" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/AAPL - DCF.xlsx
+++ b/Excel/AAPL - DCF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredherber/Desktop/Finance-Portfolio/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8C90C8-CE76-D646-B2FA-2F526ADBB3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF4A777-0794-3640-B769-6C140CEFCAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="29400" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1060" yWindow="500" windowWidth="29400" windowHeight="19040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement Model" sheetId="1" r:id="rId1"/>
@@ -1657,6 +1657,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -1668,9 +1671,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2006,7 +2006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="60" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -2237,7 +2237,7 @@
       <c r="K12" s="120">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="L12" s="133" t="s">
+      <c r="L12" s="129" t="s">
         <v>359</v>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       <c r="E13" s="65"/>
       <c r="F13" s="65"/>
       <c r="G13" s="36"/>
-      <c r="L13" s="133"/>
+      <c r="L13" s="129"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
@@ -2290,7 +2290,7 @@
         <f>K11*K15</f>
         <v>299495895465.82159</v>
       </c>
-      <c r="L14" s="133"/>
+      <c r="L14" s="129"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="103" t="s">
@@ -2332,7 +2332,7 @@
         <f>AVERAGE($C$15:$F$15)</f>
         <v>0.58136658127113428</v>
       </c>
-      <c r="L15" s="133"/>
+      <c r="L15" s="129"/>
     </row>
     <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
@@ -2374,7 +2374,7 @@
         <f>K11-K14</f>
         <v>215662534884.58838</v>
       </c>
-      <c r="L16" s="133"/>
+      <c r="L16" s="129"/>
     </row>
     <row r="17" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="103" t="s">
@@ -2401,7 +2401,7 @@
       <c r="I17" s="47"/>
       <c r="J17" s="47"/>
       <c r="K17" s="47"/>
-      <c r="L17" s="133"/>
+      <c r="L17" s="129"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="36"/>
@@ -2410,7 +2410,7 @@
       <c r="E18" s="65"/>
       <c r="F18" s="65"/>
       <c r="G18" s="36"/>
-      <c r="L18" s="133"/>
+      <c r="L18" s="129"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="104" t="s">
@@ -5806,8 +5806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AA98"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7777,96 +7777,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="131"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="131"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="130"/>
+      <c r="C10" s="131"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="130"/>
+      <c r="C12" s="131"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="130"/>
+      <c r="C13" s="131"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="130"/>
+      <c r="C14" s="131"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
@@ -8695,81 +8695,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="131"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="131"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
